--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_8_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_8_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2450428.081911166</v>
+        <v>2443828.947914637</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4796874.55333942</v>
+        <v>4796874.553339422</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>972076.9237851673</v>
+        <v>972076.9237851667</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9532443.927067474</v>
+        <v>9532443.927067472</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>105.6245995301945</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -712,7 +712,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>67.15846012395846</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -755,13 +755,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>9.779609449122125</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>43.20432640147267</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -840,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>57.16776090941369</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
@@ -946,10 +946,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>36.21593518981624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>49.31110394229523</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -983,13 +983,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1025,25 +1025,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>122.6759511395065</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,67 +1141,67 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>133.3848909959478</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
+        <v>15.21022140383137</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4.097100052852173</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>205.6802163062329</v>
+      </c>
+      <c r="X8" t="n">
         <v>263.2420339516666</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>144.0576027644702</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>222.6908602868995</v>
-      </c>
-      <c r="U8" t="n">
-        <v>251.3382516189322</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
     </row>
     <row r="9">
@@ -1211,19 +1211,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>42.77123604570766</v>
+        <v>37.94609418021141</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1265,22 +1265,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>142.3870695882587</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>14.41402108404357</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620682</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>120.031911980184</v>
+        <v>120.0319119801845</v>
       </c>
       <c r="T11" t="n">
         <v>206.0011415039874</v>
@@ -1469,7 +1469,7 @@
         <v>92.05595951472299</v>
       </c>
       <c r="I12" t="n">
-        <v>17.45796115935251</v>
+        <v>17.45796115935249</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>146.6529045384039</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>102.7718671137919</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>98.53027340697469</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>193.4891218645373</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>172.0977867860095</v>
       </c>
       <c r="U13" t="n">
         <v>286.2234817002391</v>
@@ -1590,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>7.927942252317392</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1706,7 +1706,7 @@
         <v>92.05595951472299</v>
       </c>
       <c r="I15" t="n">
-        <v>17.45796115935251</v>
+        <v>17.45796115935249</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>102.7718671137919</v>
+        <v>44.56959818918337</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>193.4891218645373</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>220.4610230218942</v>
@@ -1824,16 +1824,16 @@
         <v>286.2234817002391</v>
       </c>
       <c r="V16" t="n">
-        <v>165.6397079751245</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1897,7 +1897,7 @@
         <v>120.0319119801845</v>
       </c>
       <c r="T17" t="n">
-        <v>206.0011415039874</v>
+        <v>206.0011415039869</v>
       </c>
       <c r="U17" t="n">
         <v>251.0332424806951</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>92.05595951472299</v>
       </c>
       <c r="I18" t="n">
-        <v>17.45796115935251</v>
+        <v>17.45796115935249</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,25 +2004,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>96.02848800544847</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>24.80036909327899</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.2392723271766</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>102.7718671137919</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>98.53027340697469</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>193.4891218645373</v>
@@ -2058,7 +2058,7 @@
         <v>220.4610230218942</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2234817002391</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2180,7 +2180,7 @@
         <v>92.05595951472299</v>
       </c>
       <c r="I21" t="n">
-        <v>17.45796115935251</v>
+        <v>17.45796115935249</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.2392723271766</v>
       </c>
       <c r="H22" t="n">
-        <v>146.6529045384039</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>98.53027340697469</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>193.4891218645373</v>
       </c>
       <c r="T22" t="n">
-        <v>220.4610230218942</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2234817002391</v>
+        <v>146.6609481361407</v>
       </c>
       <c r="V22" t="n">
-        <v>168.6187304339526</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2338,7 +2338,7 @@
         <v>299.4813860287427</v>
       </c>
       <c r="I23" t="n">
-        <v>59.92335216579113</v>
+        <v>59.92335216579035</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>206.0011415039874</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0332424806948</v>
+        <v>251.0332424806951</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2417,7 +2417,7 @@
         <v>92.05595951472299</v>
       </c>
       <c r="I24" t="n">
-        <v>17.45796115935251</v>
+        <v>17.45796115935249</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>170.2214171162103</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>69.22270703935716</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>98.53027340697469</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>193.4891218645373</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>220.4610230218942</v>
       </c>
       <c r="U25" t="n">
         <v>286.2234817002391</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>92.05595951472299</v>
       </c>
       <c r="I27" t="n">
-        <v>17.45796115935251</v>
+        <v>17.45796115935249</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,19 +2715,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>124.4182416714472</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.2392723271766</v>
+        <v>87.18723550825656</v>
       </c>
       <c r="H28" t="n">
         <v>146.6529045384039</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>98.53027340697467</v>
       </c>
       <c r="S28" t="n">
         <v>193.4891218645373</v>
@@ -2769,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2234817002391</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2891,7 +2891,7 @@
         <v>92.05595951472299</v>
       </c>
       <c r="I30" t="n">
-        <v>17.45796115935251</v>
+        <v>17.45796115935249</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>119.5039979919367</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.2392723271766</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>146.6529045384039</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>98.53027340697469</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>193.4891218645373</v>
+        <v>145.1258856286526</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>220.4610230218942</v>
       </c>
       <c r="U31" t="n">
         <v>286.2234817002391</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3128,7 +3128,7 @@
         <v>92.05595951472299</v>
       </c>
       <c r="I33" t="n">
-        <v>17.45796115935251</v>
+        <v>17.45796115935249</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3204,10 +3204,10 @@
         <v>166.2392723271766</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>58.87063260299566</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>102.7718671137919</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,13 +3243,13 @@
         <v>220.4610230218942</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2234817002391</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>203.8664712166976</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3365,7 +3365,7 @@
         <v>92.05595951472299</v>
       </c>
       <c r="I36" t="n">
-        <v>17.45796115935251</v>
+        <v>17.45796115935249</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3429,16 +3429,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.2392723271766</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>98.53027340697467</v>
       </c>
       <c r="S37" t="n">
         <v>193.4891218645373</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>220.4610230218942</v>
       </c>
       <c r="U37" t="n">
-        <v>86.10514519216647</v>
+        <v>121.4829964714675</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722609</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3602,7 +3602,7 @@
         <v>92.05595951472299</v>
       </c>
       <c r="I39" t="n">
-        <v>17.45796115935251</v>
+        <v>17.45796115935249</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3666,22 +3666,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>146.6529045384039</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>102.7718671137919</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>98.53027340697469</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>193.4891218645373</v>
@@ -3717,16 +3717,16 @@
         <v>220.4610230218942</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2234817002391</v>
       </c>
       <c r="V40" t="n">
-        <v>33.97303358498995</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>58.32778191876916</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417106</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>411.3976071758674</v>
@@ -3839,7 +3839,7 @@
         <v>92.05595951472299</v>
       </c>
       <c r="I42" t="n">
-        <v>17.45796115935251</v>
+        <v>17.45796115935249</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>27.21958944730464</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3912,10 +3912,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.2392723271766</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>146.6529045384039</v>
       </c>
       <c r="I43" t="n">
         <v>102.7718671137919</v>
@@ -3954,19 +3954,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>238.9626226533815</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4030,7 +4030,7 @@
         <v>120.0319119801845</v>
       </c>
       <c r="T44" t="n">
-        <v>206.0011415039874</v>
+        <v>206.0011415039869</v>
       </c>
       <c r="U44" t="n">
         <v>251.0332424806951</v>
@@ -4076,7 +4076,7 @@
         <v>92.05595951472299</v>
       </c>
       <c r="I45" t="n">
-        <v>17.45796115935251</v>
+        <v>17.45796115935249</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4152,7 +4152,7 @@
         <v>166.2392723271766</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>146.6529045384039</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>220.4610230218942</v>
+        <v>201.8976282285444</v>
       </c>
       <c r="U46" t="n">
-        <v>58.1203294111719</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>290.2572196227447</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C2" t="n">
-        <v>290.2572196227447</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D2" t="n">
-        <v>290.2572196227447</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E2" t="n">
-        <v>290.2572196227447</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="F2" t="n">
-        <v>46.80844297864461</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I2" t="n">
         <v>31.35113235729608</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>601.5428246748836</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>601.5428246748836</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U2" t="n">
-        <v>601.5428246748836</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V2" t="n">
-        <v>601.5428246748836</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W2" t="n">
-        <v>601.5428246748836</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X2" t="n">
-        <v>533.7059962668447</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y2" t="n">
-        <v>533.7059962668447</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>443.2712565396388</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="C3" t="n">
-        <v>268.8182272585117</v>
+        <v>178.8480788072013</v>
       </c>
       <c r="D3" t="n">
-        <v>268.8182272585117</v>
+        <v>29.91366914595008</v>
       </c>
       <c r="E3" t="n">
-        <v>109.5807722530562</v>
+        <v>29.91366914595008</v>
       </c>
       <c r="F3" t="n">
-        <v>109.5807722530562</v>
+        <v>29.91366914595008</v>
       </c>
       <c r="G3" t="n">
-        <v>109.5807722530562</v>
+        <v>29.91366914595008</v>
       </c>
       <c r="H3" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4415,16 +4415,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>65.60123993063803</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
         <v>964.0571555106362</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>819.2468923246606</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T3" t="n">
-        <v>819.2468923246606</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U3" t="n">
-        <v>819.2468923246606</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V3" t="n">
-        <v>819.2468923246606</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W3" t="n">
-        <v>819.2468923246606</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="X3" t="n">
-        <v>819.2468923246606</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="Y3" t="n">
-        <v>611.4865935597068</v>
+        <v>353.3011080883284</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>297.2027203719481</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="C5" t="n">
-        <v>297.2027203719481</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="D5" t="n">
-        <v>297.2027203719481</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="E5" t="n">
-        <v>53.75394372784808</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="F5" t="n">
         <v>46.80844297864461</v>
@@ -4594,25 +4594,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>577.2332497330343</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U5" t="n">
-        <v>577.2332497330343</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V5" t="n">
-        <v>577.2332497330343</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W5" t="n">
-        <v>333.7844730889342</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X5" t="n">
-        <v>333.7844730889342</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y5" t="n">
-        <v>297.2027203719481</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>464.5381141589534</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C6" t="n">
-        <v>464.5381141589534</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D6" t="n">
-        <v>464.5381141589534</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>305.3006591534979</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>158.7661011803829</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
         <v>20.03527576299844</v>
@@ -4649,22 +4649,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4673,25 +4673,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>588.4532163200711</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W6" t="n">
-        <v>464.5381141589534</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X6" t="n">
-        <v>464.5381141589534</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y6" t="n">
-        <v>464.5381141589534</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="7">
@@ -4701,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>428.6381209881796</v>
+        <v>47.50720837107777</v>
       </c>
       <c r="C8" t="n">
-        <v>428.6381209881796</v>
+        <v>47.50720837107777</v>
       </c>
       <c r="D8" t="n">
-        <v>428.6381209881796</v>
+        <v>47.50720837107777</v>
       </c>
       <c r="E8" t="n">
-        <v>293.9059078609596</v>
+        <v>47.50720837107777</v>
       </c>
       <c r="F8" t="n">
-        <v>286.9604071117561</v>
+        <v>40.56170762187429</v>
       </c>
       <c r="G8" t="n">
-        <v>21.05936271613333</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="H8" t="n">
-        <v>21.05936271613333</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="I8" t="n">
-        <v>21.05936271613333</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="J8" t="n">
         <v>21.05936271613333</v>
@@ -4813,10 +4813,10 @@
         <v>330.254671414236</v>
       </c>
       <c r="M8" t="n">
-        <v>563.3128681098021</v>
+        <v>563.3128681098023</v>
       </c>
       <c r="N8" t="n">
-        <v>785.5101925369328</v>
+        <v>785.5101925369327</v>
       </c>
       <c r="O8" t="n">
         <v>950.1371873885138</v>
@@ -4828,28 +4828,28 @@
         <v>1052.968135806666</v>
       </c>
       <c r="R8" t="n">
-        <v>907.4554057415451</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S8" t="n">
-        <v>907.4554057415451</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T8" t="n">
-        <v>682.5151428254849</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="U8" t="n">
-        <v>428.6381209881796</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="V8" t="n">
-        <v>428.6381209881796</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="W8" t="n">
-        <v>428.6381209881796</v>
+        <v>845.2103415579463</v>
       </c>
       <c r="X8" t="n">
-        <v>428.6381209881796</v>
+        <v>579.3092971623234</v>
       </c>
       <c r="Y8" t="n">
-        <v>428.6381209881796</v>
+        <v>313.4082527667006</v>
       </c>
     </row>
     <row r="9">
@@ -4859,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>579.5594807309091</v>
+        <v>109.6374838154158</v>
       </c>
       <c r="C9" t="n">
-        <v>405.1064514497821</v>
+        <v>109.6374838154158</v>
       </c>
       <c r="D9" t="n">
-        <v>256.1720417885308</v>
+        <v>109.6374838154158</v>
       </c>
       <c r="E9" t="n">
-        <v>256.1720417885308</v>
+        <v>109.6374838154158</v>
       </c>
       <c r="F9" t="n">
         <v>109.6374838154158</v>
@@ -4886,19 +4886,19 @@
         <v>21.05936271613333</v>
       </c>
       <c r="K9" t="n">
-        <v>154.3302328992135</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="L9" t="n">
-        <v>394.9337607940759</v>
+        <v>261.6628906109958</v>
       </c>
       <c r="M9" t="n">
-        <v>655.5433744062259</v>
+        <v>522.2725042231457</v>
       </c>
       <c r="N9" t="n">
-        <v>860.9667611285679</v>
+        <v>782.8821178352956</v>
       </c>
       <c r="O9" t="n">
-        <v>860.9667611285679</v>
+        <v>1043.295181927788</v>
       </c>
       <c r="P9" t="n">
         <v>1052.968135806666</v>
@@ -4913,22 +4913,22 @@
         <v>1052.968135806666</v>
       </c>
       <c r="T9" t="n">
-        <v>850.9830782217423</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="U9" t="n">
-        <v>622.7627494639471</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="V9" t="n">
-        <v>622.7627494639471</v>
+        <v>817.8160275749237</v>
       </c>
       <c r="W9" t="n">
-        <v>622.7627494639471</v>
+        <v>563.5786708467222</v>
       </c>
       <c r="X9" t="n">
-        <v>622.7627494639471</v>
+        <v>355.7271706411893</v>
       </c>
       <c r="Y9" t="n">
-        <v>622.7627494639471</v>
+        <v>147.9668718762354</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>167.9493102140437</v>
+        <v>38.68360465423048</v>
       </c>
       <c r="C10" t="n">
-        <v>167.9493102140437</v>
+        <v>38.68360465423048</v>
       </c>
       <c r="D10" t="n">
-        <v>167.9493102140437</v>
+        <v>38.68360465423048</v>
       </c>
       <c r="E10" t="n">
-        <v>167.9493102140437</v>
+        <v>38.68360465423048</v>
       </c>
       <c r="F10" t="n">
-        <v>21.05936271613333</v>
+        <v>38.68360465423048</v>
       </c>
       <c r="G10" t="n">
-        <v>21.05936271613333</v>
+        <v>38.68360465423048</v>
       </c>
       <c r="H10" t="n">
-        <v>21.05936271613333</v>
+        <v>38.68360465423048</v>
       </c>
       <c r="I10" t="n">
-        <v>21.05936271613333</v>
+        <v>38.68360465423048</v>
       </c>
       <c r="J10" t="n">
-        <v>21.05936271613333</v>
+        <v>38.68360465423048</v>
       </c>
       <c r="K10" t="n">
         <v>21.05936271613333</v>
@@ -4998,16 +4998,16 @@
         <v>182.5089274706534</v>
       </c>
       <c r="V10" t="n">
-        <v>167.9493102140437</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="W10" t="n">
-        <v>167.9493102140437</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="X10" t="n">
-        <v>167.9493102140437</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="Y10" t="n">
-        <v>167.9493102140437</v>
+        <v>182.5089274706534</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2398.907382662414</v>
+        <v>2398.907382662413</v>
       </c>
       <c r="C11" t="n">
-        <v>2029.944865722002</v>
+        <v>2029.944865722001</v>
       </c>
       <c r="D11" t="n">
         <v>1671.679167115251</v>
@@ -5041,22 +5041,22 @@
         <v>96.31678208052945</v>
       </c>
       <c r="J11" t="n">
-        <v>245.2099621702007</v>
+        <v>412.6156111905538</v>
       </c>
       <c r="K11" t="n">
-        <v>519.1007607953468</v>
+        <v>1007.410368261153</v>
       </c>
       <c r="L11" t="n">
-        <v>1309.27287983384</v>
+        <v>1797.582487299646</v>
       </c>
       <c r="M11" t="n">
-        <v>2205.098157604819</v>
+        <v>2248.389366912721</v>
       </c>
       <c r="N11" t="n">
-        <v>3100.786827380814</v>
+        <v>2867.561865739907</v>
       </c>
       <c r="O11" t="n">
-        <v>3901.372601679235</v>
+        <v>3668.147640038329</v>
       </c>
       <c r="P11" t="n">
         <v>4313.754693287991</v>
@@ -5068,22 +5068,22 @@
         <v>4815.839104026472</v>
       </c>
       <c r="S11" t="n">
-        <v>4694.594748490933</v>
+        <v>4694.594748490932</v>
       </c>
       <c r="T11" t="n">
-        <v>4486.512787375794</v>
+        <v>4486.512787375793</v>
       </c>
       <c r="U11" t="n">
-        <v>4232.943855577112</v>
+        <v>4232.943855577111</v>
       </c>
       <c r="V11" t="n">
-        <v>3901.880968233541</v>
+        <v>3901.88096823354</v>
       </c>
       <c r="W11" t="n">
-        <v>3549.112312963427</v>
+        <v>3549.112312963426</v>
       </c>
       <c r="X11" t="n">
-        <v>3175.646554702347</v>
+        <v>3175.646554702346</v>
       </c>
       <c r="Y11" t="n">
         <v>2785.507222726535</v>
@@ -5120,28 +5120,28 @@
         <v>96.31678208052945</v>
       </c>
       <c r="J12" t="n">
-        <v>166.1786931645464</v>
+        <v>291.0088181515511</v>
       </c>
       <c r="K12" t="n">
-        <v>625.559236015989</v>
+        <v>522.5095924261784</v>
       </c>
       <c r="L12" t="n">
-        <v>937.5255213962578</v>
+        <v>834.4758778064472</v>
       </c>
       <c r="M12" t="n">
-        <v>1320.93233010823</v>
+        <v>1217.88268651842</v>
       </c>
       <c r="N12" t="n">
-        <v>1728.89542109999</v>
+        <v>1625.84577751018</v>
       </c>
       <c r="O12" t="n">
-        <v>2214.083366042221</v>
+        <v>1976.832508509737</v>
       </c>
       <c r="P12" t="n">
-        <v>2476.448094962891</v>
+        <v>2239.197237430408</v>
       </c>
       <c r="Q12" t="n">
-        <v>2601.912771728116</v>
+        <v>2572.638429054123</v>
       </c>
       <c r="R12" t="n">
         <v>2601.912771728116</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>498.377635282962</v>
+        <v>96.31678208052945</v>
       </c>
       <c r="C13" t="n">
-        <v>498.377635282962</v>
+        <v>96.31678208052945</v>
       </c>
       <c r="D13" t="n">
-        <v>348.2609958706263</v>
+        <v>96.31678208052945</v>
       </c>
       <c r="E13" t="n">
-        <v>348.2609958706263</v>
+        <v>96.31678208052945</v>
       </c>
       <c r="F13" t="n">
-        <v>348.2609958706263</v>
+        <v>96.31678208052945</v>
       </c>
       <c r="G13" t="n">
-        <v>348.2609958706263</v>
+        <v>96.31678208052945</v>
       </c>
       <c r="H13" t="n">
-        <v>200.1267488621375</v>
+        <v>96.31678208052945</v>
       </c>
       <c r="I13" t="n">
         <v>96.31678208052945</v>
@@ -5202,10 +5202,10 @@
         <v>126.4984240055537</v>
       </c>
       <c r="K13" t="n">
-        <v>305.9329698360006</v>
+        <v>305.9329698360007</v>
       </c>
       <c r="L13" t="n">
-        <v>591.0738459500056</v>
+        <v>591.0738459500058</v>
       </c>
       <c r="M13" t="n">
         <v>902.1040432058082</v>
@@ -5223,28 +5223,28 @@
         <v>1747.594904052587</v>
       </c>
       <c r="R13" t="n">
-        <v>1648.069375358673</v>
+        <v>1747.594904052587</v>
       </c>
       <c r="S13" t="n">
-        <v>1452.625817919747</v>
+        <v>1552.151346613661</v>
       </c>
       <c r="T13" t="n">
-        <v>1452.625817919747</v>
+        <v>1378.315198344964</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.511189939707</v>
+        <v>1089.200570364924</v>
       </c>
       <c r="V13" t="n">
-        <v>908.8267017338202</v>
+        <v>834.5160821590375</v>
       </c>
       <c r="W13" t="n">
-        <v>908.8267017338202</v>
+        <v>545.0989121220769</v>
       </c>
       <c r="X13" t="n">
-        <v>900.8186792567319</v>
+        <v>317.1093612240596</v>
       </c>
       <c r="Y13" t="n">
-        <v>680.0261001132018</v>
+        <v>96.31678208052945</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2398.907382662413</v>
+        <v>2398.907382662414</v>
       </c>
       <c r="C14" t="n">
-        <v>2029.944865722001</v>
+        <v>2029.944865722002</v>
       </c>
       <c r="D14" t="n">
         <v>1671.679167115251</v>
@@ -5266,7 +5266,7 @@
         <v>1285.890914517007</v>
       </c>
       <c r="F14" t="n">
-        <v>874.9050097273994</v>
+        <v>874.9050097273996</v>
       </c>
       <c r="G14" t="n">
         <v>459.3518711659171</v>
@@ -5278,49 +5278,49 @@
         <v>96.31678208052945</v>
       </c>
       <c r="J14" t="n">
-        <v>412.6156111905537</v>
+        <v>412.6156111905538</v>
       </c>
       <c r="K14" t="n">
-        <v>686.5064098156997</v>
+        <v>1007.410368261153</v>
       </c>
       <c r="L14" t="n">
-        <v>1476.678528854193</v>
+        <v>1797.582487299646</v>
       </c>
       <c r="M14" t="n">
-        <v>2372.503806625172</v>
+        <v>2693.407765070626</v>
       </c>
       <c r="N14" t="n">
-        <v>3268.192476401166</v>
+        <v>3186.142586829675</v>
       </c>
       <c r="O14" t="n">
-        <v>3733.206895712582</v>
+        <v>3986.728361128097</v>
       </c>
       <c r="P14" t="n">
-        <v>4378.813948962244</v>
+        <v>4313.754693287991</v>
       </c>
       <c r="Q14" t="n">
-        <v>4786.416199225184</v>
+        <v>4721.356943550932</v>
       </c>
       <c r="R14" t="n">
         <v>4815.839104026472</v>
       </c>
       <c r="S14" t="n">
-        <v>4694.594748490932</v>
+        <v>4694.594748490933</v>
       </c>
       <c r="T14" t="n">
         <v>4486.512787375794</v>
       </c>
       <c r="U14" t="n">
-        <v>4232.943855577111</v>
+        <v>4232.943855577112</v>
       </c>
       <c r="V14" t="n">
-        <v>3901.88096823354</v>
+        <v>3901.880968233541</v>
       </c>
       <c r="W14" t="n">
-        <v>3549.112312963426</v>
+        <v>3549.112312963427</v>
       </c>
       <c r="X14" t="n">
-        <v>3175.646554702346</v>
+        <v>3175.646554702347</v>
       </c>
       <c r="Y14" t="n">
         <v>2785.507222726535</v>
@@ -5357,28 +5357,28 @@
         <v>96.31678208052945</v>
       </c>
       <c r="J15" t="n">
-        <v>166.1786931645464</v>
+        <v>291.0088181515511</v>
       </c>
       <c r="K15" t="n">
-        <v>363.7386513735362</v>
+        <v>488.5687763605409</v>
       </c>
       <c r="L15" t="n">
-        <v>681.8030392549692</v>
+        <v>800.5350617408097</v>
       </c>
       <c r="M15" t="n">
-        <v>1065.209847966942</v>
+        <v>1183.941870452782</v>
       </c>
       <c r="N15" t="n">
-        <v>1473.172938958702</v>
+        <v>1591.904961444543</v>
       </c>
       <c r="O15" t="n">
-        <v>2214.083366042221</v>
+        <v>1942.8916924441</v>
       </c>
       <c r="P15" t="n">
-        <v>2476.448094962891</v>
+        <v>2239.197237430408</v>
       </c>
       <c r="Q15" t="n">
-        <v>2601.912771728116</v>
+        <v>2572.638429054123</v>
       </c>
       <c r="R15" t="n">
         <v>2601.912771728116</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>645.0464293547767</v>
+        <v>289.2496718136128</v>
       </c>
       <c r="C16" t="n">
-        <v>645.0464293547767</v>
+        <v>289.2496718136128</v>
       </c>
       <c r="D16" t="n">
-        <v>494.9297899424409</v>
+        <v>289.2496718136128</v>
       </c>
       <c r="E16" t="n">
-        <v>347.0166963600478</v>
+        <v>141.3365782312197</v>
       </c>
       <c r="F16" t="n">
-        <v>200.1267488621375</v>
+        <v>141.3365782312197</v>
       </c>
       <c r="G16" t="n">
-        <v>200.1267488621375</v>
+        <v>141.3365782312197</v>
       </c>
       <c r="H16" t="n">
-        <v>200.1267488621375</v>
+        <v>141.3365782312197</v>
       </c>
       <c r="I16" t="n">
         <v>96.31678208052945</v>
@@ -5439,10 +5439,10 @@
         <v>126.4984240055537</v>
       </c>
       <c r="K16" t="n">
-        <v>305.9329698360006</v>
+        <v>305.9329698360007</v>
       </c>
       <c r="L16" t="n">
-        <v>591.0738459500056</v>
+        <v>591.0738459500058</v>
       </c>
       <c r="M16" t="n">
         <v>902.1040432058082</v>
@@ -5463,25 +5463,25 @@
         <v>1747.594904052587</v>
       </c>
       <c r="S16" t="n">
-        <v>1552.151346613661</v>
+        <v>1747.594904052587</v>
       </c>
       <c r="T16" t="n">
-        <v>1329.463444571343</v>
+        <v>1524.90700201027</v>
       </c>
       <c r="U16" t="n">
-        <v>1040.348816591304</v>
+        <v>1235.79237403023</v>
       </c>
       <c r="V16" t="n">
-        <v>873.035980252794</v>
+        <v>981.1078858243433</v>
       </c>
       <c r="W16" t="n">
-        <v>873.035980252794</v>
+        <v>691.6907157873827</v>
       </c>
       <c r="X16" t="n">
-        <v>645.0464293547767</v>
+        <v>691.6907157873827</v>
       </c>
       <c r="Y16" t="n">
-        <v>645.0464293547767</v>
+        <v>470.8981366438526</v>
       </c>
     </row>
     <row r="17">
@@ -5515,25 +5515,25 @@
         <v>96.31678208052945</v>
       </c>
       <c r="J17" t="n">
-        <v>412.6156111905537</v>
+        <v>412.6156111905538</v>
       </c>
       <c r="K17" t="n">
-        <v>686.5064098156997</v>
+        <v>795.9534529865961</v>
       </c>
       <c r="L17" t="n">
-        <v>1476.678528854193</v>
+        <v>1586.125572025089</v>
       </c>
       <c r="M17" t="n">
-        <v>2372.503806625172</v>
+        <v>2036.932451638165</v>
       </c>
       <c r="N17" t="n">
-        <v>3268.192476401166</v>
+        <v>2932.621121414159</v>
       </c>
       <c r="O17" t="n">
-        <v>3943.398736465887</v>
+        <v>3733.206895712581</v>
       </c>
       <c r="P17" t="n">
-        <v>4589.005789715549</v>
+        <v>4378.813948962244</v>
       </c>
       <c r="Q17" t="n">
         <v>4786.416199225184</v>
@@ -5545,19 +5545,19 @@
         <v>4694.594748490932</v>
       </c>
       <c r="T17" t="n">
-        <v>4486.512787375793</v>
+        <v>4486.512787375794</v>
       </c>
       <c r="U17" t="n">
-        <v>4232.943855577111</v>
+        <v>4232.943855577112</v>
       </c>
       <c r="V17" t="n">
-        <v>3901.88096823354</v>
+        <v>3901.880968233541</v>
       </c>
       <c r="W17" t="n">
-        <v>3549.112312963426</v>
+        <v>3549.112312963427</v>
       </c>
       <c r="X17" t="n">
-        <v>3175.646554702346</v>
+        <v>3175.646554702347</v>
       </c>
       <c r="Y17" t="n">
         <v>2785.507222726535</v>
@@ -5600,19 +5600,19 @@
         <v>488.5687763605409</v>
       </c>
       <c r="L18" t="n">
-        <v>1071.726735338932</v>
+        <v>800.5350617408097</v>
       </c>
       <c r="M18" t="n">
-        <v>1455.133544050904</v>
+        <v>1183.941870452782</v>
       </c>
       <c r="N18" t="n">
-        <v>1863.096635042664</v>
+        <v>1655.120120184173</v>
       </c>
       <c r="O18" t="n">
-        <v>2214.083366042221</v>
+        <v>2006.10685118373</v>
       </c>
       <c r="P18" t="n">
-        <v>2476.448094962891</v>
+        <v>2268.471580104401</v>
       </c>
       <c r="Q18" t="n">
         <v>2601.912771728116</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>465.0436784910518</v>
+        <v>268.2576074504388</v>
       </c>
       <c r="C19" t="n">
-        <v>368.0452057582755</v>
+        <v>268.2576074504388</v>
       </c>
       <c r="D19" t="n">
-        <v>368.0452057582755</v>
+        <v>268.2576074504388</v>
       </c>
       <c r="E19" t="n">
-        <v>368.0452057582755</v>
+        <v>243.2067295784398</v>
       </c>
       <c r="F19" t="n">
-        <v>368.0452057582755</v>
+        <v>96.31678208052945</v>
       </c>
       <c r="G19" t="n">
-        <v>200.1267488621375</v>
+        <v>96.31678208052945</v>
       </c>
       <c r="H19" t="n">
-        <v>200.1267488621375</v>
+        <v>96.31678208052945</v>
       </c>
       <c r="I19" t="n">
         <v>96.31678208052945</v>
@@ -5676,10 +5676,10 @@
         <v>126.4984240055537</v>
       </c>
       <c r="K19" t="n">
-        <v>305.9329698360006</v>
+        <v>305.9329698360007</v>
       </c>
       <c r="L19" t="n">
-        <v>591.0738459500056</v>
+        <v>591.0738459500058</v>
       </c>
       <c r="M19" t="n">
         <v>902.1040432058082</v>
@@ -5697,28 +5697,28 @@
         <v>1747.594904052587</v>
       </c>
       <c r="R19" t="n">
-        <v>1648.069375358673</v>
+        <v>1747.594904052587</v>
       </c>
       <c r="S19" t="n">
-        <v>1452.625817919747</v>
+        <v>1552.151346613661</v>
       </c>
       <c r="T19" t="n">
-        <v>1229.937915877429</v>
+        <v>1329.463444571343</v>
       </c>
       <c r="U19" t="n">
-        <v>1229.937915877429</v>
+        <v>1040.348816591304</v>
       </c>
       <c r="V19" t="n">
-        <v>975.2534276715425</v>
+        <v>785.6643283854168</v>
       </c>
       <c r="W19" t="n">
-        <v>685.8362576345819</v>
+        <v>496.2471583484561</v>
       </c>
       <c r="X19" t="n">
-        <v>685.8362576345819</v>
+        <v>268.2576074504388</v>
       </c>
       <c r="Y19" t="n">
-        <v>465.0436784910518</v>
+        <v>268.2576074504388</v>
       </c>
     </row>
     <row r="20">
@@ -5728,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2398.907382662414</v>
+        <v>2398.907382662413</v>
       </c>
       <c r="C20" t="n">
-        <v>2029.944865722002</v>
+        <v>2029.944865722001</v>
       </c>
       <c r="D20" t="n">
-        <v>1671.679167115252</v>
+        <v>1671.679167115251</v>
       </c>
       <c r="E20" t="n">
-        <v>1285.890914517008</v>
+        <v>1285.890914517007</v>
       </c>
       <c r="F20" t="n">
-        <v>874.9050097273998</v>
+        <v>874.9050097273994</v>
       </c>
       <c r="G20" t="n">
         <v>459.3518711659171</v>
       </c>
       <c r="H20" t="n">
-        <v>156.8454206318338</v>
+        <v>156.8454206318336</v>
       </c>
       <c r="I20" t="n">
         <v>96.31678208052945</v>
       </c>
       <c r="J20" t="n">
-        <v>245.2099621702007</v>
+        <v>412.6156111905538</v>
       </c>
       <c r="K20" t="n">
-        <v>795.953452986597</v>
+        <v>686.5064098157</v>
       </c>
       <c r="L20" t="n">
-        <v>1586.12557202509</v>
+        <v>1476.678528854193</v>
       </c>
       <c r="M20" t="n">
-        <v>2036.932451638166</v>
+        <v>2372.503806625173</v>
       </c>
       <c r="N20" t="n">
-        <v>2932.62112141416</v>
+        <v>3268.192476401167</v>
       </c>
       <c r="O20" t="n">
-        <v>3733.206895712582</v>
+        <v>4068.778250699589</v>
       </c>
       <c r="P20" t="n">
-        <v>4378.813948962244</v>
+        <v>4589.005789715549</v>
       </c>
       <c r="Q20" t="n">
         <v>4786.416199225184</v>
@@ -5785,16 +5785,16 @@
         <v>4486.512787375794</v>
       </c>
       <c r="U20" t="n">
-        <v>4232.943855577112</v>
+        <v>4232.943855577111</v>
       </c>
       <c r="V20" t="n">
-        <v>3901.880968233541</v>
+        <v>3901.88096823354</v>
       </c>
       <c r="W20" t="n">
-        <v>3549.112312963427</v>
+        <v>3549.112312963426</v>
       </c>
       <c r="X20" t="n">
-        <v>3175.646554702347</v>
+        <v>3175.646554702346</v>
       </c>
       <c r="Y20" t="n">
         <v>2785.507222726535</v>
@@ -5834,22 +5834,22 @@
         <v>166.1786931645464</v>
       </c>
       <c r="K21" t="n">
-        <v>363.7386513735362</v>
+        <v>625.559236015989</v>
       </c>
       <c r="L21" t="n">
-        <v>675.704936753805</v>
+        <v>937.5255213962578</v>
       </c>
       <c r="M21" t="n">
-        <v>1059.111745465777</v>
+        <v>1320.93233010823</v>
       </c>
       <c r="N21" t="n">
-        <v>1467.074836457537</v>
+        <v>1728.895421099991</v>
       </c>
       <c r="O21" t="n">
-        <v>1898.805225088683</v>
+        <v>2079.882152099548</v>
       </c>
       <c r="P21" t="n">
-        <v>2476.448094962891</v>
+        <v>2342.246881020219</v>
       </c>
       <c r="Q21" t="n">
         <v>2601.912771728116</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>563.5038514292609</v>
+        <v>411.1251864745778</v>
       </c>
       <c r="C22" t="n">
-        <v>394.567668501354</v>
+        <v>411.1251864745778</v>
       </c>
       <c r="D22" t="n">
-        <v>244.4510290890182</v>
+        <v>411.1251864745778</v>
       </c>
       <c r="E22" t="n">
-        <v>244.4510290890182</v>
+        <v>411.1251864745778</v>
       </c>
       <c r="F22" t="n">
-        <v>244.4510290890182</v>
+        <v>264.2352389766675</v>
       </c>
       <c r="G22" t="n">
-        <v>244.4510290890182</v>
+        <v>96.31678208052945</v>
       </c>
       <c r="H22" t="n">
         <v>96.31678208052945</v>
@@ -5913,10 +5913,10 @@
         <v>126.4984240055537</v>
       </c>
       <c r="K22" t="n">
-        <v>305.9329698360006</v>
+        <v>305.9329698360007</v>
       </c>
       <c r="L22" t="n">
-        <v>591.0738459500056</v>
+        <v>591.0738459500058</v>
       </c>
       <c r="M22" t="n">
         <v>902.1040432058082</v>
@@ -5934,28 +5934,28 @@
         <v>1747.594904052587</v>
       </c>
       <c r="R22" t="n">
-        <v>1648.069375358673</v>
+        <v>1747.594904052587</v>
       </c>
       <c r="S22" t="n">
-        <v>1648.069375358673</v>
+        <v>1552.151346613661</v>
       </c>
       <c r="T22" t="n">
-        <v>1425.381473316356</v>
+        <v>1552.151346613661</v>
       </c>
       <c r="U22" t="n">
-        <v>1136.266845336316</v>
+        <v>1404.008974758973</v>
       </c>
       <c r="V22" t="n">
-        <v>965.9448954030307</v>
+        <v>1149.324486553086</v>
       </c>
       <c r="W22" t="n">
-        <v>965.9448954030307</v>
+        <v>859.9073165161253</v>
       </c>
       <c r="X22" t="n">
-        <v>965.9448954030307</v>
+        <v>631.917765618108</v>
       </c>
       <c r="Y22" t="n">
-        <v>745.1523162595006</v>
+        <v>411.1251864745778</v>
       </c>
     </row>
     <row r="23">
@@ -5965,73 +5965,73 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2398.907382662414</v>
+        <v>2398.907382662413</v>
       </c>
       <c r="C23" t="n">
-        <v>2029.944865722002</v>
+        <v>2029.944865722001</v>
       </c>
       <c r="D23" t="n">
-        <v>1671.679167115252</v>
+        <v>1671.67916711525</v>
       </c>
       <c r="E23" t="n">
-        <v>1285.890914517007</v>
+        <v>1285.890914517006</v>
       </c>
       <c r="F23" t="n">
-        <v>874.9050097273994</v>
+        <v>874.9050097273987</v>
       </c>
       <c r="G23" t="n">
-        <v>459.3518711659171</v>
+        <v>459.3518711659164</v>
       </c>
       <c r="H23" t="n">
-        <v>156.8454206318336</v>
+        <v>156.8454206318328</v>
       </c>
       <c r="I23" t="n">
         <v>96.31678208052945</v>
       </c>
       <c r="J23" t="n">
-        <v>245.2099621702007</v>
+        <v>412.6156111905538</v>
       </c>
       <c r="K23" t="n">
-        <v>840.0047192407999</v>
+        <v>1007.410368261153</v>
       </c>
       <c r="L23" t="n">
-        <v>1630.176838279293</v>
+        <v>1797.582487299646</v>
       </c>
       <c r="M23" t="n">
-        <v>2526.002116050272</v>
+        <v>2248.389366912721</v>
       </c>
       <c r="N23" t="n">
-        <v>3421.690785826267</v>
+        <v>2867.561865739907</v>
       </c>
       <c r="O23" t="n">
-        <v>3845.28438067457</v>
+        <v>3668.147640038329</v>
       </c>
       <c r="P23" t="n">
-        <v>4490.891433924233</v>
+        <v>4313.754693287991</v>
       </c>
       <c r="Q23" t="n">
-        <v>4786.416199225184</v>
+        <v>4721.356943550932</v>
       </c>
       <c r="R23" t="n">
         <v>4815.839104026472</v>
       </c>
       <c r="S23" t="n">
-        <v>4694.594748490933</v>
+        <v>4694.594748490932</v>
       </c>
       <c r="T23" t="n">
-        <v>4486.512787375794</v>
+        <v>4486.512787375793</v>
       </c>
       <c r="U23" t="n">
-        <v>4232.943855577112</v>
+        <v>4232.943855577111</v>
       </c>
       <c r="V23" t="n">
-        <v>3901.880968233541</v>
+        <v>3901.88096823354</v>
       </c>
       <c r="W23" t="n">
-        <v>3549.112312963427</v>
+        <v>3549.112312963426</v>
       </c>
       <c r="X23" t="n">
-        <v>3175.646554702347</v>
+        <v>3175.646554702346</v>
       </c>
       <c r="Y23" t="n">
         <v>2785.507222726535</v>
@@ -6071,22 +6071,22 @@
         <v>166.1786931645464</v>
       </c>
       <c r="K24" t="n">
-        <v>363.7386513735362</v>
+        <v>625.559236015989</v>
       </c>
       <c r="L24" t="n">
-        <v>681.8030392549692</v>
+        <v>937.5255213962578</v>
       </c>
       <c r="M24" t="n">
-        <v>1065.209847966942</v>
+        <v>1320.93233010823</v>
       </c>
       <c r="N24" t="n">
-        <v>1473.172938958702</v>
+        <v>1728.895421099991</v>
       </c>
       <c r="O24" t="n">
-        <v>2214.083366042221</v>
+        <v>2079.882152099548</v>
       </c>
       <c r="P24" t="n">
-        <v>2476.448094962891</v>
+        <v>2342.246881020219</v>
       </c>
       <c r="Q24" t="n">
         <v>2601.912771728116</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>633.2046243055462</v>
+        <v>96.31678208052945</v>
       </c>
       <c r="C25" t="n">
-        <v>464.2684413776393</v>
+        <v>96.31678208052945</v>
       </c>
       <c r="D25" t="n">
-        <v>314.1518019653035</v>
+        <v>96.31678208052945</v>
       </c>
       <c r="E25" t="n">
-        <v>166.2387083829104</v>
+        <v>96.31678208052945</v>
       </c>
       <c r="F25" t="n">
         <v>96.31678208052945</v>
@@ -6150,10 +6150,10 @@
         <v>126.4984240055537</v>
       </c>
       <c r="K25" t="n">
-        <v>305.9329698360006</v>
+        <v>305.9329698360007</v>
       </c>
       <c r="L25" t="n">
-        <v>591.0738459500056</v>
+        <v>591.0738459500058</v>
       </c>
       <c r="M25" t="n">
         <v>902.1040432058082</v>
@@ -6171,28 +6171,28 @@
         <v>1747.594904052587</v>
       </c>
       <c r="R25" t="n">
-        <v>1648.069375358673</v>
+        <v>1747.594904052587</v>
       </c>
       <c r="S25" t="n">
-        <v>1648.069375358673</v>
+        <v>1552.151346613661</v>
       </c>
       <c r="T25" t="n">
-        <v>1648.069375358673</v>
+        <v>1329.463444571343</v>
       </c>
       <c r="U25" t="n">
-        <v>1358.954747378634</v>
+        <v>1040.348816591304</v>
       </c>
       <c r="V25" t="n">
-        <v>1104.270259172747</v>
+        <v>785.6643283854168</v>
       </c>
       <c r="W25" t="n">
-        <v>814.8530891357859</v>
+        <v>496.2471583484561</v>
       </c>
       <c r="X25" t="n">
-        <v>814.8530891357859</v>
+        <v>268.2576074504388</v>
       </c>
       <c r="Y25" t="n">
-        <v>814.8530891357859</v>
+        <v>268.2576074504388</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>96.31678208052945</v>
       </c>
       <c r="J26" t="n">
-        <v>245.2099621702007</v>
+        <v>245.2099621702008</v>
       </c>
       <c r="K26" t="n">
-        <v>840.0047192407999</v>
+        <v>519.1007607953469</v>
       </c>
       <c r="L26" t="n">
-        <v>1216.692235874347</v>
+        <v>1309.27287983384</v>
       </c>
       <c r="M26" t="n">
-        <v>2112.517513645327</v>
+        <v>2205.09815760482</v>
       </c>
       <c r="N26" t="n">
-        <v>3008.206183421321</v>
+        <v>3100.786827380814</v>
       </c>
       <c r="O26" t="n">
-        <v>3808.791957719743</v>
+        <v>3901.372601679236</v>
       </c>
       <c r="P26" t="n">
-        <v>4378.813948962244</v>
+        <v>4523.946534041297</v>
       </c>
       <c r="Q26" t="n">
-        <v>4786.416199225184</v>
+        <v>4721.356943550932</v>
       </c>
       <c r="R26" t="n">
         <v>4815.839104026472</v>
@@ -6305,28 +6305,28 @@
         <v>96.31678208052945</v>
       </c>
       <c r="J27" t="n">
-        <v>195.0685498992485</v>
+        <v>291.0088181515511</v>
       </c>
       <c r="K27" t="n">
-        <v>392.6285081082383</v>
+        <v>522.5095924261784</v>
       </c>
       <c r="L27" t="n">
-        <v>1071.726735338932</v>
+        <v>834.4758778064472</v>
       </c>
       <c r="M27" t="n">
-        <v>1455.133544050904</v>
+        <v>1217.88268651842</v>
       </c>
       <c r="N27" t="n">
-        <v>1863.096635042664</v>
+        <v>1625.84577751018</v>
       </c>
       <c r="O27" t="n">
-        <v>2214.083366042221</v>
+        <v>1976.832508509737</v>
       </c>
       <c r="P27" t="n">
-        <v>2476.448094962891</v>
+        <v>2239.197237430408</v>
       </c>
       <c r="Q27" t="n">
-        <v>2601.912771728116</v>
+        <v>2572.638429054123</v>
       </c>
       <c r="R27" t="n">
         <v>2601.912771728116</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>791.9710837664205</v>
+        <v>1050.184773945977</v>
       </c>
       <c r="C28" t="n">
-        <v>666.2960921791001</v>
+        <v>881.2485910180701</v>
       </c>
       <c r="D28" t="n">
-        <v>516.1794527667644</v>
+        <v>731.1319516057343</v>
       </c>
       <c r="E28" t="n">
-        <v>516.1794527667644</v>
+        <v>583.2188580233412</v>
       </c>
       <c r="F28" t="n">
-        <v>516.1794527667644</v>
+        <v>436.3289105254308</v>
       </c>
       <c r="G28" t="n">
-        <v>348.2609958706263</v>
+        <v>348.2609958706262</v>
       </c>
       <c r="H28" t="n">
-        <v>200.1267488621375</v>
+        <v>200.1267488621374</v>
       </c>
       <c r="I28" t="n">
         <v>96.31678208052945</v>
@@ -6387,10 +6387,10 @@
         <v>126.4984240055537</v>
       </c>
       <c r="K28" t="n">
-        <v>305.9329698360006</v>
+        <v>305.9329698360007</v>
       </c>
       <c r="L28" t="n">
-        <v>591.0738459500056</v>
+        <v>591.0738459500058</v>
       </c>
       <c r="M28" t="n">
         <v>902.1040432058082</v>
@@ -6408,28 +6408,28 @@
         <v>1747.594904052587</v>
       </c>
       <c r="R28" t="n">
-        <v>1747.594904052587</v>
+        <v>1648.069375358673</v>
       </c>
       <c r="S28" t="n">
-        <v>1552.151346613661</v>
+        <v>1452.625817919747</v>
       </c>
       <c r="T28" t="n">
-        <v>1552.151346613661</v>
+        <v>1452.625817919747</v>
       </c>
       <c r="U28" t="n">
-        <v>1263.036718633621</v>
+        <v>1452.625817919747</v>
       </c>
       <c r="V28" t="n">
-        <v>1263.036718633621</v>
+        <v>1452.625817919747</v>
       </c>
       <c r="W28" t="n">
-        <v>973.6195485966603</v>
+        <v>1452.625817919747</v>
       </c>
       <c r="X28" t="n">
-        <v>973.6195485966603</v>
+        <v>1452.625817919747</v>
       </c>
       <c r="Y28" t="n">
-        <v>973.6195485966603</v>
+        <v>1231.833238776217</v>
       </c>
     </row>
     <row r="29">
@@ -6463,22 +6463,22 @@
         <v>96.31678208052945</v>
       </c>
       <c r="J29" t="n">
-        <v>412.6156111905537</v>
+        <v>284.912859601167</v>
       </c>
       <c r="K29" t="n">
-        <v>1007.410368261153</v>
+        <v>879.7076166717662</v>
       </c>
       <c r="L29" t="n">
-        <v>1797.582487299646</v>
+        <v>1669.879735710259</v>
       </c>
       <c r="M29" t="n">
-        <v>2248.389366912721</v>
+        <v>2565.705013481239</v>
       </c>
       <c r="N29" t="n">
-        <v>3144.078036688716</v>
+        <v>3461.393683257234</v>
       </c>
       <c r="O29" t="n">
-        <v>3943.398736465887</v>
+        <v>4261.979457555655</v>
       </c>
       <c r="P29" t="n">
         <v>4589.005789715549</v>
@@ -6542,28 +6542,28 @@
         <v>96.31678208052945</v>
       </c>
       <c r="J30" t="n">
-        <v>166.1786931645464</v>
+        <v>291.0088181515511</v>
       </c>
       <c r="K30" t="n">
-        <v>363.7386513735362</v>
+        <v>551.7839351001714</v>
       </c>
       <c r="L30" t="n">
-        <v>675.704936753805</v>
+        <v>863.7502204804402</v>
       </c>
       <c r="M30" t="n">
-        <v>1059.111745465777</v>
+        <v>1247.157029192413</v>
       </c>
       <c r="N30" t="n">
-        <v>1467.074836457537</v>
+        <v>1655.120120184173</v>
       </c>
       <c r="O30" t="n">
-        <v>2207.985263541057</v>
+        <v>2006.10685118373</v>
       </c>
       <c r="P30" t="n">
-        <v>2470.349992461727</v>
+        <v>2268.471580104401</v>
       </c>
       <c r="Q30" t="n">
-        <v>2595.814669226952</v>
+        <v>2601.912771728116</v>
       </c>
       <c r="R30" t="n">
         <v>2601.912771728116</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3601.324795041806</v>
+        <v>96.31678208052945</v>
       </c>
       <c r="C31" t="n">
-        <v>3601.324795041806</v>
+        <v>96.31678208052945</v>
       </c>
       <c r="D31" t="n">
-        <v>3601.324795041806</v>
+        <v>96.31678208052945</v>
       </c>
       <c r="E31" t="n">
-        <v>3601.324795041806</v>
+        <v>96.31678208052945</v>
       </c>
       <c r="F31" t="n">
-        <v>3480.613685959042</v>
+        <v>96.31678208052945</v>
       </c>
       <c r="G31" t="n">
-        <v>3312.695229062903</v>
+        <v>96.31678208052945</v>
       </c>
       <c r="H31" t="n">
-        <v>3164.560982054415</v>
+        <v>96.31678208052945</v>
       </c>
       <c r="I31" t="n">
-        <v>3164.560982054415</v>
+        <v>96.31678208052945</v>
       </c>
       <c r="J31" t="n">
-        <v>3194.742623979439</v>
+        <v>126.4984240055537</v>
       </c>
       <c r="K31" t="n">
-        <v>3374.177169809886</v>
+        <v>305.9329698360007</v>
       </c>
       <c r="L31" t="n">
-        <v>3659.318045923891</v>
+        <v>591.0738459500058</v>
       </c>
       <c r="M31" t="n">
-        <v>3970.348243179694</v>
+        <v>902.1040432058082</v>
       </c>
       <c r="N31" t="n">
-        <v>4279.41745395328</v>
+        <v>1211.173253979394</v>
       </c>
       <c r="O31" t="n">
-        <v>4548.87659888955</v>
+        <v>1480.632398915665</v>
       </c>
       <c r="P31" t="n">
-        <v>4755.924765659393</v>
+        <v>1687.680565685507</v>
       </c>
       <c r="Q31" t="n">
-        <v>4815.839104026472</v>
+        <v>1747.594904052587</v>
       </c>
       <c r="R31" t="n">
-        <v>4716.313575332559</v>
+        <v>1747.594904052587</v>
       </c>
       <c r="S31" t="n">
-        <v>4520.870017893632</v>
+        <v>1601.003100387281</v>
       </c>
       <c r="T31" t="n">
-        <v>4520.870017893632</v>
+        <v>1378.315198344964</v>
       </c>
       <c r="U31" t="n">
-        <v>4231.755389913593</v>
+        <v>1089.200570364924</v>
       </c>
       <c r="V31" t="n">
-        <v>4231.755389913593</v>
+        <v>834.5160821590375</v>
       </c>
       <c r="W31" t="n">
-        <v>4231.755389913593</v>
+        <v>545.0989121220769</v>
       </c>
       <c r="X31" t="n">
-        <v>4003.765839015576</v>
+        <v>317.1093612240596</v>
       </c>
       <c r="Y31" t="n">
-        <v>3782.973259872046</v>
+        <v>96.31678208052945</v>
       </c>
     </row>
     <row r="32">
@@ -6676,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2398.907382662414</v>
+        <v>2398.907382662413</v>
       </c>
       <c r="C32" t="n">
-        <v>2029.944865722002</v>
+        <v>2029.944865722001</v>
       </c>
       <c r="D32" t="n">
-        <v>1671.679167115252</v>
+        <v>1671.679167115251</v>
       </c>
       <c r="E32" t="n">
-        <v>1285.890914517008</v>
+        <v>1285.890914517007</v>
       </c>
       <c r="F32" t="n">
-        <v>874.9050097273998</v>
+        <v>874.9050097273994</v>
       </c>
       <c r="G32" t="n">
         <v>459.3518711659171</v>
       </c>
       <c r="H32" t="n">
-        <v>156.8454206318338</v>
+        <v>156.8454206318336</v>
       </c>
       <c r="I32" t="n">
         <v>96.31678208052945</v>
       </c>
       <c r="J32" t="n">
-        <v>411.3505366693036</v>
+        <v>412.6156111905538</v>
       </c>
       <c r="K32" t="n">
-        <v>1006.145293739903</v>
+        <v>814.648360997514</v>
       </c>
       <c r="L32" t="n">
-        <v>1796.317412778396</v>
+        <v>1604.820480036007</v>
       </c>
       <c r="M32" t="n">
-        <v>2247.124292391471</v>
+        <v>2500.645757806987</v>
       </c>
       <c r="N32" t="n">
-        <v>3142.812962167466</v>
+        <v>3396.334427582981</v>
       </c>
       <c r="O32" t="n">
-        <v>3943.398736465887</v>
+        <v>4196.920201881403</v>
       </c>
       <c r="P32" t="n">
-        <v>4589.005789715549</v>
+        <v>4523.946534041297</v>
       </c>
       <c r="Q32" t="n">
-        <v>4786.416199225184</v>
+        <v>4721.356943550932</v>
       </c>
       <c r="R32" t="n">
         <v>4815.839104026472</v>
@@ -6733,16 +6733,16 @@
         <v>4486.512787375794</v>
       </c>
       <c r="U32" t="n">
-        <v>4232.943855577112</v>
+        <v>4232.943855577111</v>
       </c>
       <c r="V32" t="n">
-        <v>3901.880968233541</v>
+        <v>3901.88096823354</v>
       </c>
       <c r="W32" t="n">
-        <v>3549.112312963427</v>
+        <v>3549.112312963426</v>
       </c>
       <c r="X32" t="n">
-        <v>3175.646554702347</v>
+        <v>3175.646554702346</v>
       </c>
       <c r="Y32" t="n">
         <v>2785.507222726535</v>
@@ -6782,22 +6782,22 @@
         <v>166.1786931645464</v>
       </c>
       <c r="K33" t="n">
-        <v>363.7386513735362</v>
+        <v>625.559236015989</v>
       </c>
       <c r="L33" t="n">
-        <v>681.8030392549692</v>
+        <v>937.5255213962578</v>
       </c>
       <c r="M33" t="n">
-        <v>1065.209847966942</v>
+        <v>1320.93233010823</v>
       </c>
       <c r="N33" t="n">
-        <v>1473.172938958702</v>
+        <v>1728.895421099991</v>
       </c>
       <c r="O33" t="n">
-        <v>2214.083366042221</v>
+        <v>2079.882152099548</v>
       </c>
       <c r="P33" t="n">
-        <v>2476.448094962891</v>
+        <v>2342.246881020219</v>
       </c>
       <c r="Q33" t="n">
         <v>2601.912771728116</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3649.328715460853</v>
+        <v>894.4764071384826</v>
       </c>
       <c r="C34" t="n">
-        <v>3480.392532532946</v>
+        <v>725.5402242105757</v>
       </c>
       <c r="D34" t="n">
-        <v>3480.392532532946</v>
+        <v>575.42358479824</v>
       </c>
       <c r="E34" t="n">
-        <v>3332.479438950553</v>
+        <v>427.5104912158469</v>
       </c>
       <c r="F34" t="n">
-        <v>3332.479438950553</v>
+        <v>427.5104912158469</v>
       </c>
       <c r="G34" t="n">
-        <v>3164.560982054415</v>
+        <v>259.5920343197088</v>
       </c>
       <c r="H34" t="n">
-        <v>3164.560982054415</v>
+        <v>200.1267488621374</v>
       </c>
       <c r="I34" t="n">
-        <v>3164.560982054415</v>
+        <v>96.31678208052945</v>
       </c>
       <c r="J34" t="n">
-        <v>3194.742623979439</v>
+        <v>126.4984240055537</v>
       </c>
       <c r="K34" t="n">
-        <v>3374.177169809886</v>
+        <v>305.9329698360007</v>
       </c>
       <c r="L34" t="n">
-        <v>3659.318045923891</v>
+        <v>591.0738459500058</v>
       </c>
       <c r="M34" t="n">
-        <v>3970.348243179694</v>
+        <v>902.1040432058082</v>
       </c>
       <c r="N34" t="n">
-        <v>4279.41745395328</v>
+        <v>1211.173253979394</v>
       </c>
       <c r="O34" t="n">
-        <v>4548.87659888955</v>
+        <v>1480.632398915665</v>
       </c>
       <c r="P34" t="n">
-        <v>4755.924765659393</v>
+        <v>1687.680565685507</v>
       </c>
       <c r="Q34" t="n">
-        <v>4815.839104026472</v>
+        <v>1747.594904052587</v>
       </c>
       <c r="R34" t="n">
-        <v>4815.839104026472</v>
+        <v>1747.594904052587</v>
       </c>
       <c r="S34" t="n">
-        <v>4815.839104026472</v>
+        <v>1747.594904052587</v>
       </c>
       <c r="T34" t="n">
-        <v>4593.151201984155</v>
+        <v>1524.90700201027</v>
       </c>
       <c r="U34" t="n">
-        <v>4304.036574004115</v>
+        <v>1524.90700201027</v>
       </c>
       <c r="V34" t="n">
-        <v>4304.036574004115</v>
+        <v>1524.90700201027</v>
       </c>
       <c r="W34" t="n">
-        <v>4098.1108455024</v>
+        <v>1524.90700201027</v>
       </c>
       <c r="X34" t="n">
-        <v>3870.121294604383</v>
+        <v>1296.917451112252</v>
       </c>
       <c r="Y34" t="n">
-        <v>3649.328715460853</v>
+        <v>1076.124871968722</v>
       </c>
     </row>
     <row r="35">
@@ -6937,7 +6937,7 @@
         <v>96.31678208052945</v>
       </c>
       <c r="J35" t="n">
-        <v>245.2099621702007</v>
+        <v>245.2099621702008</v>
       </c>
       <c r="K35" t="n">
         <v>840.0047192407999</v>
@@ -6952,10 +6952,10 @@
         <v>3421.690785826267</v>
       </c>
       <c r="O35" t="n">
-        <v>4222.276560124688</v>
+        <v>4222.276560124689</v>
       </c>
       <c r="P35" t="n">
-        <v>4589.005789715549</v>
+        <v>4549.302892284583</v>
       </c>
       <c r="Q35" t="n">
         <v>4786.416199225184</v>
@@ -7019,22 +7019,22 @@
         <v>166.1786931645464</v>
       </c>
       <c r="K36" t="n">
-        <v>363.7386513735362</v>
+        <v>625.559236015989</v>
       </c>
       <c r="L36" t="n">
-        <v>675.704936753805</v>
+        <v>937.5255213962578</v>
       </c>
       <c r="M36" t="n">
-        <v>1059.111745465777</v>
+        <v>1320.93233010823</v>
       </c>
       <c r="N36" t="n">
-        <v>1863.096635042664</v>
+        <v>1728.895421099991</v>
       </c>
       <c r="O36" t="n">
-        <v>2214.083366042221</v>
+        <v>2079.882152099548</v>
       </c>
       <c r="P36" t="n">
-        <v>2476.448094962891</v>
+        <v>2342.246881020219</v>
       </c>
       <c r="Q36" t="n">
         <v>2601.912771728116</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.0613694024847</v>
+        <v>415.3696044207721</v>
       </c>
       <c r="C37" t="n">
-        <v>411.1251864745778</v>
+        <v>246.4334214928652</v>
       </c>
       <c r="D37" t="n">
-        <v>411.1251864745778</v>
+        <v>96.31678208052945</v>
       </c>
       <c r="E37" t="n">
-        <v>411.1251864745778</v>
+        <v>96.31678208052945</v>
       </c>
       <c r="F37" t="n">
-        <v>264.2352389766675</v>
+        <v>96.31678208052945</v>
       </c>
       <c r="G37" t="n">
         <v>96.31678208052945</v>
@@ -7098,10 +7098,10 @@
         <v>126.4984240055537</v>
       </c>
       <c r="K37" t="n">
-        <v>305.9329698360006</v>
+        <v>305.9329698360007</v>
       </c>
       <c r="L37" t="n">
-        <v>591.0738459500056</v>
+        <v>591.0738459500058</v>
       </c>
       <c r="M37" t="n">
         <v>902.1040432058082</v>
@@ -7119,28 +7119,28 @@
         <v>1747.594904052587</v>
       </c>
       <c r="R37" t="n">
-        <v>1747.594904052587</v>
+        <v>1648.069375358673</v>
       </c>
       <c r="S37" t="n">
-        <v>1552.151346613661</v>
+        <v>1452.625817919747</v>
       </c>
       <c r="T37" t="n">
-        <v>1552.151346613661</v>
+        <v>1229.937915877429</v>
       </c>
       <c r="U37" t="n">
-        <v>1465.176452480159</v>
+        <v>1107.227818431503</v>
       </c>
       <c r="V37" t="n">
-        <v>1210.491964274272</v>
+        <v>1107.227818431503</v>
       </c>
       <c r="W37" t="n">
-        <v>1210.491964274272</v>
+        <v>817.810648394542</v>
       </c>
       <c r="X37" t="n">
-        <v>982.5024133762546</v>
+        <v>817.810648394542</v>
       </c>
       <c r="Y37" t="n">
-        <v>761.7098342327245</v>
+        <v>597.0180692510119</v>
       </c>
     </row>
     <row r="38">
@@ -7156,7 +7156,7 @@
         <v>2029.944865722001</v>
       </c>
       <c r="D38" t="n">
-        <v>1671.67916711525</v>
+        <v>1671.679167115251</v>
       </c>
       <c r="E38" t="n">
         <v>1285.890914517007</v>
@@ -7174,25 +7174,25 @@
         <v>96.31678208052945</v>
       </c>
       <c r="J38" t="n">
-        <v>245.2099621702007</v>
+        <v>245.2099621702008</v>
       </c>
       <c r="K38" t="n">
-        <v>840.0047192407999</v>
+        <v>561.1268955819979</v>
       </c>
       <c r="L38" t="n">
-        <v>1574.08062903505</v>
+        <v>1351.299014620491</v>
       </c>
       <c r="M38" t="n">
-        <v>2469.90590680603</v>
+        <v>2247.124292391471</v>
       </c>
       <c r="N38" t="n">
-        <v>2932.62112141416</v>
+        <v>3142.812962167465</v>
       </c>
       <c r="O38" t="n">
-        <v>3733.206895712582</v>
+        <v>3943.398736465887</v>
       </c>
       <c r="P38" t="n">
-        <v>4378.813948962244</v>
+        <v>4589.005789715549</v>
       </c>
       <c r="Q38" t="n">
         <v>4786.416199225184</v>
@@ -7256,22 +7256,22 @@
         <v>166.1786931645464</v>
       </c>
       <c r="K39" t="n">
-        <v>392.6285081082383</v>
+        <v>625.559236015989</v>
       </c>
       <c r="L39" t="n">
-        <v>1071.726735338932</v>
+        <v>937.5255213962578</v>
       </c>
       <c r="M39" t="n">
-        <v>1455.133544050904</v>
+        <v>1320.93233010823</v>
       </c>
       <c r="N39" t="n">
-        <v>1863.096635042664</v>
+        <v>1728.895421099991</v>
       </c>
       <c r="O39" t="n">
-        <v>2214.083366042221</v>
+        <v>2079.882152099548</v>
       </c>
       <c r="P39" t="n">
-        <v>2476.448094962891</v>
+        <v>2342.246881020219</v>
       </c>
       <c r="Q39" t="n">
         <v>2601.912771728116</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>793.1806763632655</v>
+        <v>96.31678208052945</v>
       </c>
       <c r="C40" t="n">
-        <v>793.1806763632655</v>
+        <v>96.31678208052945</v>
       </c>
       <c r="D40" t="n">
-        <v>643.0640369509298</v>
+        <v>96.31678208052945</v>
       </c>
       <c r="E40" t="n">
-        <v>495.1509433685367</v>
+        <v>96.31678208052945</v>
       </c>
       <c r="F40" t="n">
-        <v>348.2609958706263</v>
+        <v>96.31678208052945</v>
       </c>
       <c r="G40" t="n">
-        <v>348.2609958706263</v>
+        <v>96.31678208052945</v>
       </c>
       <c r="H40" t="n">
-        <v>200.1267488621375</v>
+        <v>96.31678208052945</v>
       </c>
       <c r="I40" t="n">
         <v>96.31678208052945</v>
@@ -7335,10 +7335,10 @@
         <v>126.4984240055537</v>
       </c>
       <c r="K40" t="n">
-        <v>305.9329698360006</v>
+        <v>305.9329698360007</v>
       </c>
       <c r="L40" t="n">
-        <v>591.0738459500056</v>
+        <v>591.0738459500058</v>
       </c>
       <c r="M40" t="n">
         <v>902.1040432058082</v>
@@ -7356,28 +7356,28 @@
         <v>1747.594904052587</v>
       </c>
       <c r="R40" t="n">
-        <v>1648.069375358673</v>
+        <v>1747.594904052587</v>
       </c>
       <c r="S40" t="n">
-        <v>1452.625817919747</v>
+        <v>1552.151346613661</v>
       </c>
       <c r="T40" t="n">
-        <v>1229.937915877429</v>
+        <v>1329.463444571343</v>
       </c>
       <c r="U40" t="n">
-        <v>1229.937915877429</v>
+        <v>1040.348816591304</v>
       </c>
       <c r="V40" t="n">
-        <v>1195.621720337035</v>
+        <v>785.6643283854168</v>
       </c>
       <c r="W40" t="n">
-        <v>1195.621720337035</v>
+        <v>726.7473769523166</v>
       </c>
       <c r="X40" t="n">
-        <v>1195.621720337035</v>
+        <v>498.7578260542992</v>
       </c>
       <c r="Y40" t="n">
-        <v>974.8291411935053</v>
+        <v>277.9652469107692</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2398.907382662413</v>
+        <v>2398.907382662414</v>
       </c>
       <c r="C41" t="n">
-        <v>2029.944865722001</v>
+        <v>2029.944865722002</v>
       </c>
       <c r="D41" t="n">
-        <v>1671.67916711525</v>
+        <v>1671.679167115252</v>
       </c>
       <c r="E41" t="n">
-        <v>1285.890914517006</v>
+        <v>1285.890914517008</v>
       </c>
       <c r="F41" t="n">
-        <v>874.9050097273995</v>
+        <v>874.9050097273998</v>
       </c>
       <c r="G41" t="n">
-        <v>459.3518711659172</v>
+        <v>459.3518711659171</v>
       </c>
       <c r="H41" t="n">
-        <v>156.8454206318336</v>
+        <v>156.8454206318338</v>
       </c>
       <c r="I41" t="n">
         <v>96.31678208052945</v>
       </c>
       <c r="J41" t="n">
-        <v>245.2099621702007</v>
+        <v>412.6156111905538</v>
       </c>
       <c r="K41" t="n">
-        <v>840.0047192407999</v>
+        <v>686.5064098157</v>
       </c>
       <c r="L41" t="n">
-        <v>1351.299014620492</v>
+        <v>1476.678528854193</v>
       </c>
       <c r="M41" t="n">
-        <v>2247.124292391471</v>
+        <v>2372.503806625173</v>
       </c>
       <c r="N41" t="n">
-        <v>3142.812962167466</v>
+        <v>3268.192476401167</v>
       </c>
       <c r="O41" t="n">
-        <v>3943.398736465887</v>
+        <v>4068.778250699589</v>
       </c>
       <c r="P41" t="n">
-        <v>4589.005789715549</v>
+        <v>4395.804582859483</v>
       </c>
       <c r="Q41" t="n">
-        <v>4786.416199225184</v>
+        <v>4721.356943550932</v>
       </c>
       <c r="R41" t="n">
         <v>4815.839104026472</v>
@@ -7441,19 +7441,19 @@
         <v>4694.594748490932</v>
       </c>
       <c r="T41" t="n">
-        <v>4486.512787375793</v>
+        <v>4486.512787375794</v>
       </c>
       <c r="U41" t="n">
-        <v>4232.943855577111</v>
+        <v>4232.943855577112</v>
       </c>
       <c r="V41" t="n">
-        <v>3901.88096823354</v>
+        <v>3901.880968233541</v>
       </c>
       <c r="W41" t="n">
-        <v>3549.112312963426</v>
+        <v>3549.112312963427</v>
       </c>
       <c r="X41" t="n">
-        <v>3175.646554702346</v>
+        <v>3175.646554702347</v>
       </c>
       <c r="Y41" t="n">
         <v>2785.507222726535</v>
@@ -7502,13 +7502,13 @@
         <v>1320.93233010823</v>
       </c>
       <c r="N42" t="n">
-        <v>1728.89542109999</v>
+        <v>1728.895421099991</v>
       </c>
       <c r="O42" t="n">
         <v>2079.882152099548</v>
       </c>
       <c r="P42" t="n">
-        <v>2476.448094962891</v>
+        <v>2342.246881020219</v>
       </c>
       <c r="Q42" t="n">
         <v>2601.912771728116</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>981.9010691788217</v>
+        <v>962.1168592911723</v>
       </c>
       <c r="C43" t="n">
-        <v>812.9648862509148</v>
+        <v>793.1806763632654</v>
       </c>
       <c r="D43" t="n">
-        <v>662.848246838579</v>
+        <v>643.0640369509297</v>
       </c>
       <c r="E43" t="n">
-        <v>514.9351532561859</v>
+        <v>495.1509433685366</v>
       </c>
       <c r="F43" t="n">
-        <v>368.0452057582755</v>
+        <v>348.2609958706262</v>
       </c>
       <c r="G43" t="n">
-        <v>200.1267488621375</v>
+        <v>348.2609958706262</v>
       </c>
       <c r="H43" t="n">
-        <v>200.1267488621375</v>
+        <v>200.1267488621374</v>
       </c>
       <c r="I43" t="n">
         <v>96.31678208052945</v>
@@ -7572,10 +7572,10 @@
         <v>126.4984240055537</v>
       </c>
       <c r="K43" t="n">
-        <v>305.9329698360006</v>
+        <v>305.9329698360007</v>
       </c>
       <c r="L43" t="n">
-        <v>591.0738459500056</v>
+        <v>591.0738459500058</v>
       </c>
       <c r="M43" t="n">
         <v>902.1040432058082</v>
@@ -7602,19 +7602,19 @@
         <v>1747.594904052587</v>
       </c>
       <c r="U43" t="n">
-        <v>1747.594904052587</v>
+        <v>1506.21851753402</v>
       </c>
       <c r="V43" t="n">
-        <v>1747.594904052587</v>
+        <v>1251.534029328133</v>
       </c>
       <c r="W43" t="n">
-        <v>1458.177734015626</v>
+        <v>962.1168592911723</v>
       </c>
       <c r="X43" t="n">
-        <v>1230.188183117609</v>
+        <v>962.1168592911723</v>
       </c>
       <c r="Y43" t="n">
-        <v>1009.395603974079</v>
+        <v>962.1168592911723</v>
       </c>
     </row>
     <row r="44">
@@ -7630,46 +7630,46 @@
         <v>2029.944865722002</v>
       </c>
       <c r="D44" t="n">
-        <v>1671.679167115252</v>
+        <v>1671.679167115251</v>
       </c>
       <c r="E44" t="n">
-        <v>1285.890914517008</v>
+        <v>1285.890914517007</v>
       </c>
       <c r="F44" t="n">
-        <v>874.9050097273998</v>
+        <v>874.9050097273995</v>
       </c>
       <c r="G44" t="n">
-        <v>459.3518711659171</v>
+        <v>459.3518711659172</v>
       </c>
       <c r="H44" t="n">
-        <v>156.8454206318338</v>
+        <v>156.8454206318336</v>
       </c>
       <c r="I44" t="n">
         <v>96.31678208052945</v>
       </c>
       <c r="J44" t="n">
-        <v>412.6156111905537</v>
+        <v>245.2099621702008</v>
       </c>
       <c r="K44" t="n">
-        <v>1007.410368261153</v>
+        <v>840.0047192407999</v>
       </c>
       <c r="L44" t="n">
-        <v>1797.582487299646</v>
+        <v>1630.176838279293</v>
       </c>
       <c r="M44" t="n">
-        <v>2693.407765070625</v>
+        <v>2526.002116050272</v>
       </c>
       <c r="N44" t="n">
-        <v>3156.122979678756</v>
+        <v>3421.690785826267</v>
       </c>
       <c r="O44" t="n">
-        <v>3956.708753977177</v>
+        <v>4222.276560124689</v>
       </c>
       <c r="P44" t="n">
-        <v>4313.754693287991</v>
+        <v>4549.302892284583</v>
       </c>
       <c r="Q44" t="n">
-        <v>4721.356943550932</v>
+        <v>4746.713301794218</v>
       </c>
       <c r="R44" t="n">
         <v>4815.839104026472</v>
@@ -7730,22 +7730,22 @@
         <v>166.1786931645464</v>
       </c>
       <c r="K45" t="n">
-        <v>363.7386513735362</v>
+        <v>625.559236015989</v>
       </c>
       <c r="L45" t="n">
-        <v>863.7502204804407</v>
+        <v>937.5255213962578</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.157029192413</v>
+        <v>1320.93233010823</v>
       </c>
       <c r="N45" t="n">
-        <v>1655.120120184173</v>
+        <v>1728.895421099991</v>
       </c>
       <c r="O45" t="n">
-        <v>2006.10685118373</v>
+        <v>2079.882152099548</v>
       </c>
       <c r="P45" t="n">
-        <v>2268.471580104401</v>
+        <v>2342.246881020219</v>
       </c>
       <c r="Q45" t="n">
         <v>2601.912771728116</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>581.0845154869675</v>
+        <v>879.3354019077921</v>
       </c>
       <c r="C46" t="n">
-        <v>412.1483325590606</v>
+        <v>710.3992189798852</v>
       </c>
       <c r="D46" t="n">
-        <v>412.1483325590606</v>
+        <v>560.2825795675494</v>
       </c>
       <c r="E46" t="n">
-        <v>264.2352389766675</v>
+        <v>412.3694859851562</v>
       </c>
       <c r="F46" t="n">
-        <v>264.2352389766675</v>
+        <v>412.3694859851562</v>
       </c>
       <c r="G46" t="n">
-        <v>96.31678208052945</v>
+        <v>244.4510290890182</v>
       </c>
       <c r="H46" t="n">
         <v>96.31678208052945</v>
@@ -7809,10 +7809,10 @@
         <v>126.4984240055537</v>
       </c>
       <c r="K46" t="n">
-        <v>305.9329698360006</v>
+        <v>305.9329698360007</v>
       </c>
       <c r="L46" t="n">
-        <v>591.0738459500056</v>
+        <v>591.0738459500058</v>
       </c>
       <c r="M46" t="n">
         <v>902.1040432058082</v>
@@ -7836,22 +7836,22 @@
         <v>1747.594904052587</v>
       </c>
       <c r="T46" t="n">
-        <v>1524.90700201027</v>
+        <v>1543.657905841936</v>
       </c>
       <c r="U46" t="n">
-        <v>1466.199598564642</v>
+        <v>1543.657905841936</v>
       </c>
       <c r="V46" t="n">
-        <v>1211.515110358755</v>
+        <v>1288.973417636049</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.515110358755</v>
+        <v>1288.973417636049</v>
       </c>
       <c r="X46" t="n">
-        <v>983.5255594607373</v>
+        <v>1060.983866738032</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.7329803172072</v>
+        <v>1060.983866738032</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
@@ -8072,10 +8072,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>122.1609165114202</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,13 +8543,13 @@
         <v>392.8337743093848</v>
       </c>
       <c r="N9" t="n">
-        <v>325.9658317557535</v>
+        <v>381.709495280812</v>
       </c>
       <c r="O9" t="n">
-        <v>130.8188201934042</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>134.2926466205231</v>
       </c>
       <c r="Q9" t="n">
         <v>133.663080786811</v>
@@ -8689,25 +8689,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>158.0376608273288</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>86.21793883723421</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>34.28365259155299</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8783,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>135.5567817602765</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>15.95162670627758</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,7 +8929,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -8938,19 +8938,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>30.32283550597884</v>
       </c>
       <c r="O14" t="n">
-        <v>41.83921662940543</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>6.15969949612554</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>34.28365259155305</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>15.95162670627758</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9166,25 +9166,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>110.5525688594911</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>254.1542072893103</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9248,13 +9248,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>273.9309834324463</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>63.85369569659662</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>15.95162670627758</v>
+        <v>15.95162670627755</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,16 +9400,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>279.6491840315658</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9418,10 +9418,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>195.1527341980464</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>81.55925013291773</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>135.5567817602756</v>
       </c>
       <c r="R21" t="n">
-        <v>15.95162670627758</v>
+        <v>15.95162670627755</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9646,22 +9646,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>158.0376608273288</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>99.10540989021834</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,10 +9719,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>6.15969949612554</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>135.5567817602756</v>
       </c>
       <c r="R24" t="n">
-        <v>15.95162670627758</v>
+        <v>15.95162670627755</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,10 +9877,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9892,13 +9892,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>245.4501606895017</v>
+        <v>298.532929497138</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>29.18167346939609</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>34.28365259155299</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>15.95162670627758</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>40.10393679895586</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10120,16 +10120,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>379.5223282109778</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>63.85369569659645</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>22.11132620240308</v>
+        <v>15.95162670627755</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,16 +10348,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>167.8187621203059</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>129.4363143250648</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10366,13 +10366,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10430,10 +10430,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>6.15969949612554</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10442,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>135.5567817602756</v>
       </c>
       <c r="R33" t="n">
-        <v>15.95162670627758</v>
+        <v>15.95162670627755</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10603,10 +10603,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>40.10393679895628</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>40.10393679895517</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10676,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>400.0220187728551</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>135.5567817602756</v>
       </c>
       <c r="R36" t="n">
-        <v>15.95162670627758</v>
+        <v>15.95162670627755</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10825,16 +10825,16 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>42.45064119863741</v>
       </c>
       <c r="L38" t="n">
-        <v>360.9983769300031</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10843,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -10904,10 +10904,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>29.18167346939606</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>135.5567817602756</v>
       </c>
       <c r="R39" t="n">
-        <v>15.95162670627758</v>
+        <v>15.95162670627755</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>135.9664431779242</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11077,13 +11077,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>129.4363143250642</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>135.5567817602763</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>135.5567817602756</v>
       </c>
       <c r="R42" t="n">
-        <v>15.95162670627758</v>
+        <v>15.95162670627755</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11308,19 +11308,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>30.32283550597953</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>40.10393679895566</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,10 +11378,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>189.9447310370059</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>135.5567817602756</v>
       </c>
       <c r="R45" t="n">
-        <v>15.95162670627758</v>
+        <v>15.95162670627755</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23433,10 +23433,10 @@
         <v>166.2392723271766</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>146.6529045384039</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>102.7718671137919</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>98.53027340697768</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>220.4610230218942</v>
+        <v>48.36323623588473</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>217.7817131367198</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.2392723271766</v>
@@ -23673,7 +23673,7 @@
         <v>146.6529045384039</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>58.20226892460855</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>98.53027340697469</v>
+        <v>98.53027340697467</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>193.4891218645373</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>86.49793534870355</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23892,25 +23892,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>71.21833309317937</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>121.6335935532902</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.2392723271766</v>
       </c>
       <c r="H19" t="n">
         <v>146.6529045384039</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>102.7718671137919</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>98.53027340697467</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2234817002391</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.2392723271766</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>146.6529045384039</v>
       </c>
       <c r="I22" t="n">
         <v>102.7718671137919</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>98.53027340697467</v>
       </c>
       <c r="S22" t="n">
-        <v>193.4891218645373</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>220.4610230218942</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>139.5625335640985</v>
       </c>
       <c r="V22" t="n">
-        <v>83.51891288987537</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>9.610563065727035</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>76.19834098357408</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.2392723271766</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>98.53027340697467</v>
       </c>
       <c r="S25" t="n">
-        <v>193.4891218645373</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>220.4610230218942</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24603,19 +24603,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>42.82857942718066</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>79.05203681892006</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>98.53027340697469</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,19 +24657,19 @@
         <v>220.4610230218942</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2234817002391</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24849,13 +24849,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>25.91705003099457</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.2392723271766</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>146.6529045384039</v>
       </c>
       <c r="I31" t="n">
         <v>102.7718671137919</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>98.53027340697467</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>48.36323623588473</v>
       </c>
       <c r="T31" t="n">
-        <v>220.4610230218942</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>146.6529045384039</v>
+        <v>87.7822719354082</v>
       </c>
       <c r="I34" t="n">
-        <v>102.7718671137919</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>98.53027340697469</v>
+        <v>98.53027340697467</v>
       </c>
       <c r="S34" t="n">
         <v>193.4891218645373</v>
@@ -25131,13 +25131,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2234817002391</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>82.65652711989344</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,16 +25317,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.2392723271766</v>
       </c>
       <c r="H37" t="n">
         <v>146.6529045384039</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>98.53027340697469</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>220.4610230218942</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>200.1183365080726</v>
+        <v>164.7404852287717</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25399,7 +25399,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.2392723271766</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>146.6529045384039</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>102.7718671137919</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>98.53027340697467</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,16 +25605,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2234817002391</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>218.1646097388381</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>228.1952164178218</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>152.6123907346327</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25800,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.2392723271766</v>
       </c>
       <c r="H43" t="n">
-        <v>146.6529045384039</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>98.53027340697469</v>
+        <v>98.53027340697467</v>
       </c>
       <c r="S43" t="n">
         <v>193.4891218645373</v>
@@ -25842,19 +25842,19 @@
         <v>220.4610230218942</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2234817002391</v>
+        <v>47.26085904685763</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>146.6529045384039</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>102.7718671137919</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>98.53027340697469</v>
+        <v>98.53027340697467</v>
       </c>
       <c r="S46" t="n">
         <v>193.4891218645373</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>18.5633947933498</v>
       </c>
       <c r="U46" t="n">
-        <v>228.1031522890672</v>
+        <v>286.2234817002391</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>810045.2737174034</v>
+        <v>810045.2737174032</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>810045.2737174034</v>
+        <v>810045.2737174032</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>810045.2737174032</v>
+        <v>810045.2737174033</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>810045.2737174032</v>
+        <v>810045.2737174031</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>810045.2737174032</v>
+        <v>810045.2737174033</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>810045.2737174033</v>
+        <v>810045.2737174032</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>810045.2737174032</v>
+        <v>810045.2737174033</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>810045.2737174033</v>
+        <v>810045.2737174032</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448193</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="E2" t="n">
-        <v>611195.384447036</v>
+        <v>611195.3844470357</v>
       </c>
       <c r="F2" t="n">
         <v>611195.3844470358</v>
       </c>
       <c r="G2" t="n">
-        <v>611195.384447036</v>
+        <v>611195.3844470355</v>
       </c>
       <c r="H2" t="n">
+        <v>611195.3844470356</v>
+      </c>
+      <c r="I2" t="n">
         <v>611195.3844470355</v>
       </c>
-      <c r="I2" t="n">
-        <v>611195.3844470356</v>
-      </c>
       <c r="J2" t="n">
-        <v>611195.384447036</v>
+        <v>611195.3844470362</v>
       </c>
       <c r="K2" t="n">
         <v>611195.3844470357</v>
       </c>
       <c r="L2" t="n">
-        <v>611195.3844470356</v>
+        <v>611195.3844470358</v>
       </c>
       <c r="M2" t="n">
+        <v>611195.3844470358</v>
+      </c>
+      <c r="N2" t="n">
+        <v>611195.3844470354</v>
+      </c>
+      <c r="O2" t="n">
         <v>611195.384447036</v>
       </c>
-      <c r="N2" t="n">
-        <v>611195.3844470362</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>611195.3844470357</v>
-      </c>
-      <c r="P2" t="n">
-        <v>611195.3844470361</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>26613.58757266295</v>
       </c>
       <c r="E3" t="n">
-        <v>1042815.216998775</v>
+        <v>1042815.216998776</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>5625.642228525643</v>
+        <v>5625.642228525821</v>
       </c>
       <c r="M3" t="n">
         <v>234430.6241910621</v>
@@ -26426,40 +26426,40 @@
         <v>337992.1075817612</v>
       </c>
       <c r="E4" t="n">
-        <v>41912.26315564653</v>
+        <v>41912.26315564652</v>
       </c>
       <c r="F4" t="n">
-        <v>41912.26315564653</v>
+        <v>41912.26315564652</v>
       </c>
       <c r="G4" t="n">
-        <v>41912.26315564655</v>
+        <v>41912.26315564651</v>
       </c>
       <c r="H4" t="n">
-        <v>41912.26315564652</v>
+        <v>41912.26315564651</v>
       </c>
       <c r="I4" t="n">
         <v>41912.26315564652</v>
       </c>
       <c r="J4" t="n">
-        <v>41912.26315564653</v>
+        <v>41912.26315564652</v>
       </c>
       <c r="K4" t="n">
-        <v>41912.26315564653</v>
+        <v>41912.26315564652</v>
       </c>
       <c r="L4" t="n">
-        <v>41912.26315564653</v>
+        <v>41912.26315564652</v>
       </c>
       <c r="M4" t="n">
-        <v>41912.26315564653</v>
+        <v>41912.26315564651</v>
       </c>
       <c r="N4" t="n">
+        <v>41912.26315564651</v>
+      </c>
+      <c r="O4" t="n">
         <v>41912.26315564652</v>
       </c>
-      <c r="O4" t="n">
-        <v>41912.26315564653</v>
-      </c>
       <c r="P4" t="n">
-        <v>41912.26315564653</v>
+        <v>41912.26315564652</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>161190.9826442395</v>
+        <v>161190.9826442393</v>
       </c>
       <c r="C6" t="n">
-        <v>241960.4141757873</v>
+        <v>241960.4141757867</v>
       </c>
       <c r="D6" t="n">
-        <v>221567.2690835622</v>
+        <v>221567.2690835621</v>
       </c>
       <c r="E6" t="n">
-        <v>-567909.3956358519</v>
+        <v>-568719.4597390066</v>
       </c>
       <c r="F6" t="n">
-        <v>474905.8213629235</v>
+        <v>474095.7572597692</v>
       </c>
       <c r="G6" t="n">
-        <v>474905.8213629236</v>
+        <v>474095.7572597688</v>
       </c>
       <c r="H6" t="n">
-        <v>474905.8213629231</v>
+        <v>474095.757259769</v>
       </c>
       <c r="I6" t="n">
-        <v>474905.8213629232</v>
+        <v>474095.7572597688</v>
       </c>
       <c r="J6" t="n">
-        <v>411845.8787638174</v>
+        <v>411035.8146606633</v>
       </c>
       <c r="K6" t="n">
-        <v>474905.8213629234</v>
+        <v>474095.7572597691</v>
       </c>
       <c r="L6" t="n">
-        <v>469280.1791343977</v>
+        <v>468470.1150312434</v>
       </c>
       <c r="M6" t="n">
-        <v>240475.1971718614</v>
+        <v>239665.133068707</v>
       </c>
       <c r="N6" t="n">
-        <v>474905.8213629238</v>
+        <v>474095.7572597687</v>
       </c>
       <c r="O6" t="n">
-        <v>474905.8213629234</v>
+        <v>474095.7572597693</v>
       </c>
       <c r="P6" t="n">
-        <v>474905.8213629237</v>
+        <v>474095.7572597691</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>23.01338268678932</v>
       </c>
       <c r="E3" t="n">
-        <v>971.4011718928193</v>
+        <v>971.4011718928194</v>
       </c>
       <c r="F3" t="n">
-        <v>971.4011718928193</v>
+        <v>971.4011718928194</v>
       </c>
       <c r="G3" t="n">
-        <v>971.4011718928193</v>
+        <v>971.4011718928194</v>
       </c>
       <c r="H3" t="n">
-        <v>971.4011718928193</v>
+        <v>971.4011718928194</v>
       </c>
       <c r="I3" t="n">
-        <v>971.4011718928193</v>
+        <v>971.4011718928194</v>
       </c>
       <c r="J3" t="n">
-        <v>971.4011718928193</v>
+        <v>971.4011718928194</v>
       </c>
       <c r="K3" t="n">
-        <v>971.4011718928193</v>
+        <v>971.4011718928194</v>
       </c>
       <c r="L3" t="n">
-        <v>971.4011718928193</v>
+        <v>971.4011718928194</v>
       </c>
       <c r="M3" t="n">
-        <v>971.4011718928193</v>
+        <v>971.4011718928194</v>
       </c>
       <c r="N3" t="n">
-        <v>971.4011718928193</v>
+        <v>971.4011718928194</v>
       </c>
       <c r="O3" t="n">
-        <v>971.4011718928193</v>
+        <v>971.4011718928194</v>
       </c>
       <c r="P3" t="n">
-        <v>971.4011718928193</v>
+        <v>971.4011718928194</v>
       </c>
     </row>
     <row r="4">
@@ -26968,7 +26968,7 @@
         <v>23.01338268678932</v>
       </c>
       <c r="E3" t="n">
-        <v>948.38778920603</v>
+        <v>948.3877892060301</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27041,7 +27041,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.22774507400754</v>
+        <v>22.22774507400825</v>
       </c>
       <c r="M4" t="n">
         <v>940.7177420549515</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>301.251446211517</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27423,7 +27423,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>302.5726405545106</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27457,16 +27457,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27475,13 +27475,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>102.4558347873743</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,19 +27505,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>128.4788447023652</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27526,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27560,10 +27560,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>203.7477984443889</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27627,7 +27627,7 @@
         <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>349.7082848322977</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -27678,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>350.0220034662374</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>117.2220797075721</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27703,13 +27703,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -27745,25 +27745,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>129.0190320214131</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27779,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>18.14994616795082</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27815,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>119.491807711814</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27861,13 +27861,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>248.545479076314</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>151.9681874521648</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>338.5273214908784</v>
@@ -27876,7 +27876,7 @@
         <v>206.909162189371</v>
       </c>
       <c r="J8" t="n">
-        <v>4.097100052852174</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>144.0576027644702</v>
       </c>
       <c r="S8" t="n">
         <v>206.9118586999128</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>143.5607524111801</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>106.4890667268024</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>122.995904704387</v>
       </c>
     </row>
     <row r="9">
@@ -27931,19 +27931,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>123.7619476041597</v>
+        <v>128.5870894696559</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.2940166796957</v>
@@ -27985,22 +27985,22 @@
         <v>170.7637213332854</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>37.44491059367863</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28022,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.9494798159088</v>
@@ -28037,7 +28037,7 @@
         <v>90.42516245839145</v>
       </c>
       <c r="K10" t="n">
-        <v>17.44799951871617</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28070,7 +28070,7 @@
         <v>286.3167657450791</v>
       </c>
       <c r="V10" t="n">
-        <v>237.7236222397844</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28095,7 +28095,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28295,7 +28295,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>-3.016490760880212e-12</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -31515,19 +31515,19 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0925161113036756</v>
+        <v>0.09251611130367561</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9474806248887678</v>
+        <v>0.9474806248887681</v>
       </c>
       <c r="I8" t="n">
         <v>3.566727381034957</v>
       </c>
       <c r="J8" t="n">
-        <v>7.852189301760343</v>
+        <v>7.852189301760345</v>
       </c>
       <c r="K8" t="n">
-        <v>11.76839629324493</v>
+        <v>11.76839629324494</v>
       </c>
       <c r="L8" t="n">
         <v>14.5997362345548</v>
@@ -31545,10 +31545,10 @@
         <v>13.30393245060769</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>9.990699214544806</v>
       </c>
       <c r="R8" t="n">
-        <v>5.811515176679517</v>
+        <v>5.811515176679518</v>
       </c>
       <c r="S8" t="n">
         <v>2.10821088633251</v>
@@ -31557,7 +31557,7 @@
         <v>0.4049892772318401</v>
       </c>
       <c r="U8" t="n">
-        <v>0.007401288904294046</v>
+        <v>0.007401288904294047</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31603,10 +31603,10 @@
         <v>1.704292963125436</v>
       </c>
       <c r="J9" t="n">
-        <v>4.676710155246498</v>
+        <v>4.676710155246499</v>
       </c>
       <c r="K9" t="n">
-        <v>7.993242550750212</v>
+        <v>7.993242550750213</v>
       </c>
       <c r="L9" t="n">
         <v>10.74790103688213</v>
@@ -31615,7 +31615,7 @@
         <v>12.54229356430018</v>
       </c>
       <c r="N9" t="n">
-        <v>12.87425075418792</v>
+        <v>12.87425075418793</v>
       </c>
       <c r="O9" t="n">
         <v>11.77742425104019</v>
@@ -31624,19 +31624,19 @@
         <v>9.452421277522959</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.318693299210532</v>
+        <v>6.318693299210533</v>
       </c>
       <c r="R9" t="n">
         <v>3.073372125605564</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9194497705523841</v>
+        <v>0.9194497705523842</v>
       </c>
       <c r="T9" t="n">
         <v>0.1995216857467866</v>
       </c>
       <c r="U9" t="n">
-        <v>0.003256610757564528</v>
+        <v>0.003256610757564529</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,10 +31673,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04149954254994795</v>
+        <v>0.04149954254994796</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3689686601259011</v>
+        <v>0.3689686601259012</v>
       </c>
       <c r="I10" t="n">
         <v>1.248004425047526</v>
@@ -31685,37 +31685,37 @@
         <v>2.93401765828132</v>
       </c>
       <c r="K10" t="n">
-        <v>4.821492307166679</v>
+        <v>4.82149230716668</v>
       </c>
       <c r="L10" t="n">
-        <v>6.169850171471354</v>
+        <v>6.169850171471355</v>
       </c>
       <c r="M10" t="n">
-        <v>6.505241928988658</v>
+        <v>6.505241928988659</v>
       </c>
       <c r="N10" t="n">
-        <v>6.350561815847948</v>
+        <v>6.350561815847949</v>
       </c>
       <c r="O10" t="n">
-        <v>5.865771705150827</v>
+        <v>5.865771705150828</v>
       </c>
       <c r="P10" t="n">
-        <v>5.019181037131885</v>
+        <v>5.019181037131886</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.475020785705187</v>
+        <v>3.475020785705188</v>
       </c>
       <c r="R10" t="n">
         <v>1.865970340473114</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7232238460750018</v>
+        <v>0.7232238460750019</v>
       </c>
       <c r="T10" t="n">
         <v>0.1773162272588685</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002263611411815345</v>
+        <v>0.002263611411815346</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.905130339267612</v>
+        <v>3.905130339267613</v>
       </c>
       <c r="H11" t="n">
-        <v>39.99341608702444</v>
+        <v>39.99341608702445</v>
       </c>
       <c r="I11" t="n">
         <v>150.5525374046148</v>
       </c>
       <c r="J11" t="n">
-        <v>331.4430561324148</v>
+        <v>331.4430561324149</v>
       </c>
       <c r="K11" t="n">
         <v>496.747223393613</v>
@@ -31773,13 +31773,13 @@
         <v>685.7067176849247</v>
       </c>
       <c r="N11" t="n">
-        <v>696.8021692613688</v>
+        <v>696.8021692613689</v>
       </c>
       <c r="O11" t="n">
-        <v>657.9705294502764</v>
+        <v>657.9705294502766</v>
       </c>
       <c r="P11" t="n">
-        <v>561.5626241996072</v>
+        <v>561.5626241996073</v>
       </c>
       <c r="Q11" t="n">
         <v>421.7101439245857</v>
@@ -31788,13 +31788,13 @@
         <v>245.3056436740194</v>
       </c>
       <c r="S11" t="n">
-        <v>88.98815760606081</v>
+        <v>88.98815760606082</v>
       </c>
       <c r="T11" t="n">
         <v>17.09470806014398</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3124104271414089</v>
+        <v>0.312410427141409</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,13 +31831,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.08942893576946</v>
+        <v>2.089428935769461</v>
       </c>
       <c r="H12" t="n">
         <v>20.17948472177348</v>
       </c>
       <c r="I12" t="n">
-        <v>71.93867169206257</v>
+        <v>71.93867169206258</v>
       </c>
       <c r="J12" t="n">
         <v>197.4052136202191</v>
@@ -31846,22 +31846,22 @@
         <v>337.396952316773</v>
       </c>
       <c r="L12" t="n">
-        <v>453.6718397599436</v>
+        <v>453.6718397599437</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4136386815865</v>
+        <v>529.4136386815866</v>
       </c>
       <c r="N12" t="n">
-        <v>543.4256423780405</v>
+        <v>543.4256423780406</v>
       </c>
       <c r="O12" t="n">
         <v>497.1282959591488</v>
       </c>
       <c r="P12" t="n">
-        <v>398.9892851119771</v>
+        <v>398.9892851119772</v>
       </c>
       <c r="Q12" t="n">
-        <v>266.7137708185718</v>
+        <v>266.7137708185719</v>
       </c>
       <c r="R12" t="n">
         <v>129.7278772576864</v>
@@ -31870,7 +31870,7 @@
         <v>38.81022606571781</v>
       </c>
       <c r="T12" t="n">
-        <v>8.42186487707076</v>
+        <v>8.421864877070762</v>
       </c>
       <c r="U12" t="n">
         <v>0.137462429984833</v>
@@ -31916,13 +31916,13 @@
         <v>15.5742679690357</v>
       </c>
       <c r="I13" t="n">
-        <v>52.67860781346634</v>
+        <v>52.67860781346635</v>
       </c>
       <c r="J13" t="n">
         <v>123.8456871116468</v>
       </c>
       <c r="K13" t="n">
-        <v>203.5165078162332</v>
+        <v>203.5165078162333</v>
       </c>
       <c r="L13" t="n">
         <v>260.4310617235274</v>
@@ -31934,7 +31934,7 @@
         <v>268.0589496142924</v>
       </c>
       <c r="O13" t="n">
-        <v>247.5958265670419</v>
+        <v>247.595826567042</v>
       </c>
       <c r="P13" t="n">
         <v>211.8610031288863</v>
@@ -31943,16 +31943,16 @@
         <v>146.6815769558157</v>
       </c>
       <c r="R13" t="n">
-        <v>78.7631179701948</v>
+        <v>78.76311797019481</v>
       </c>
       <c r="S13" t="n">
         <v>30.52747617243498</v>
       </c>
       <c r="T13" t="n">
-        <v>7.484566406387294</v>
+        <v>7.484566406387295</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09554765625175282</v>
+        <v>0.09554765625175284</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.905130339267612</v>
+        <v>3.905130339267613</v>
       </c>
       <c r="H14" t="n">
-        <v>39.99341608702444</v>
+        <v>39.99341608702445</v>
       </c>
       <c r="I14" t="n">
         <v>150.5525374046148</v>
       </c>
       <c r="J14" t="n">
-        <v>331.4430561324148</v>
+        <v>331.4430561324149</v>
       </c>
       <c r="K14" t="n">
         <v>496.747223393613</v>
@@ -32010,13 +32010,13 @@
         <v>685.7067176849247</v>
       </c>
       <c r="N14" t="n">
-        <v>696.8021692613688</v>
+        <v>696.8021692613689</v>
       </c>
       <c r="O14" t="n">
-        <v>657.9705294502764</v>
+        <v>657.9705294502766</v>
       </c>
       <c r="P14" t="n">
-        <v>561.5626241996072</v>
+        <v>561.5626241996073</v>
       </c>
       <c r="Q14" t="n">
         <v>421.7101439245857</v>
@@ -32025,13 +32025,13 @@
         <v>245.3056436740194</v>
       </c>
       <c r="S14" t="n">
-        <v>88.98815760606081</v>
+        <v>88.98815760606082</v>
       </c>
       <c r="T14" t="n">
         <v>17.09470806014398</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3124104271414089</v>
+        <v>0.312410427141409</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,13 +32068,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.08942893576946</v>
+        <v>2.089428935769461</v>
       </c>
       <c r="H15" t="n">
         <v>20.17948472177348</v>
       </c>
       <c r="I15" t="n">
-        <v>71.93867169206257</v>
+        <v>71.93867169206258</v>
       </c>
       <c r="J15" t="n">
         <v>197.4052136202191</v>
@@ -32083,22 +32083,22 @@
         <v>337.396952316773</v>
       </c>
       <c r="L15" t="n">
-        <v>453.6718397599436</v>
+        <v>453.6718397599437</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4136386815865</v>
+        <v>529.4136386815866</v>
       </c>
       <c r="N15" t="n">
-        <v>543.4256423780405</v>
+        <v>543.4256423780406</v>
       </c>
       <c r="O15" t="n">
         <v>497.1282959591488</v>
       </c>
       <c r="P15" t="n">
-        <v>398.9892851119771</v>
+        <v>398.9892851119772</v>
       </c>
       <c r="Q15" t="n">
-        <v>266.7137708185718</v>
+        <v>266.7137708185719</v>
       </c>
       <c r="R15" t="n">
         <v>129.7278772576864</v>
@@ -32107,7 +32107,7 @@
         <v>38.81022606571781</v>
       </c>
       <c r="T15" t="n">
-        <v>8.42186487707076</v>
+        <v>8.421864877070762</v>
       </c>
       <c r="U15" t="n">
         <v>0.137462429984833</v>
@@ -32153,13 +32153,13 @@
         <v>15.5742679690357</v>
       </c>
       <c r="I16" t="n">
-        <v>52.67860781346634</v>
+        <v>52.67860781346635</v>
       </c>
       <c r="J16" t="n">
         <v>123.8456871116468</v>
       </c>
       <c r="K16" t="n">
-        <v>203.5165078162332</v>
+        <v>203.5165078162333</v>
       </c>
       <c r="L16" t="n">
         <v>260.4310617235274</v>
@@ -32171,7 +32171,7 @@
         <v>268.0589496142924</v>
       </c>
       <c r="O16" t="n">
-        <v>247.5958265670419</v>
+        <v>247.595826567042</v>
       </c>
       <c r="P16" t="n">
         <v>211.8610031288863</v>
@@ -32180,16 +32180,16 @@
         <v>146.6815769558157</v>
       </c>
       <c r="R16" t="n">
-        <v>78.7631179701948</v>
+        <v>78.76311797019481</v>
       </c>
       <c r="S16" t="n">
         <v>30.52747617243498</v>
       </c>
       <c r="T16" t="n">
-        <v>7.484566406387294</v>
+        <v>7.484566406387295</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09554765625175282</v>
+        <v>0.09554765625175284</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.905130339267612</v>
+        <v>3.905130339267613</v>
       </c>
       <c r="H17" t="n">
-        <v>39.99341608702444</v>
+        <v>39.99341608702445</v>
       </c>
       <c r="I17" t="n">
         <v>150.5525374046148</v>
       </c>
       <c r="J17" t="n">
-        <v>331.4430561324148</v>
+        <v>331.4430561324149</v>
       </c>
       <c r="K17" t="n">
         <v>496.747223393613</v>
@@ -32247,13 +32247,13 @@
         <v>685.7067176849247</v>
       </c>
       <c r="N17" t="n">
-        <v>696.8021692613688</v>
+        <v>696.8021692613689</v>
       </c>
       <c r="O17" t="n">
-        <v>657.9705294502764</v>
+        <v>657.9705294502766</v>
       </c>
       <c r="P17" t="n">
-        <v>561.5626241996072</v>
+        <v>561.5626241996073</v>
       </c>
       <c r="Q17" t="n">
         <v>421.7101439245857</v>
@@ -32262,13 +32262,13 @@
         <v>245.3056436740194</v>
       </c>
       <c r="S17" t="n">
-        <v>88.98815760606081</v>
+        <v>88.98815760606082</v>
       </c>
       <c r="T17" t="n">
         <v>17.09470806014398</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3124104271414089</v>
+        <v>0.312410427141409</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,13 +32305,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.08942893576946</v>
+        <v>2.089428935769461</v>
       </c>
       <c r="H18" t="n">
         <v>20.17948472177348</v>
       </c>
       <c r="I18" t="n">
-        <v>71.93867169206257</v>
+        <v>71.93867169206258</v>
       </c>
       <c r="J18" t="n">
         <v>197.4052136202191</v>
@@ -32320,22 +32320,22 @@
         <v>337.396952316773</v>
       </c>
       <c r="L18" t="n">
-        <v>453.6718397599436</v>
+        <v>453.6718397599437</v>
       </c>
       <c r="M18" t="n">
-        <v>529.4136386815865</v>
+        <v>529.4136386815866</v>
       </c>
       <c r="N18" t="n">
-        <v>543.4256423780405</v>
+        <v>543.4256423780406</v>
       </c>
       <c r="O18" t="n">
         <v>497.1282959591488</v>
       </c>
       <c r="P18" t="n">
-        <v>398.9892851119771</v>
+        <v>398.9892851119772</v>
       </c>
       <c r="Q18" t="n">
-        <v>266.7137708185718</v>
+        <v>266.7137708185719</v>
       </c>
       <c r="R18" t="n">
         <v>129.7278772576864</v>
@@ -32344,7 +32344,7 @@
         <v>38.81022606571781</v>
       </c>
       <c r="T18" t="n">
-        <v>8.42186487707076</v>
+        <v>8.421864877070762</v>
       </c>
       <c r="U18" t="n">
         <v>0.137462429984833</v>
@@ -32390,13 +32390,13 @@
         <v>15.5742679690357</v>
       </c>
       <c r="I19" t="n">
-        <v>52.67860781346634</v>
+        <v>52.67860781346635</v>
       </c>
       <c r="J19" t="n">
         <v>123.8456871116468</v>
       </c>
       <c r="K19" t="n">
-        <v>203.5165078162332</v>
+        <v>203.5165078162333</v>
       </c>
       <c r="L19" t="n">
         <v>260.4310617235274</v>
@@ -32408,7 +32408,7 @@
         <v>268.0589496142924</v>
       </c>
       <c r="O19" t="n">
-        <v>247.5958265670419</v>
+        <v>247.595826567042</v>
       </c>
       <c r="P19" t="n">
         <v>211.8610031288863</v>
@@ -32417,16 +32417,16 @@
         <v>146.6815769558157</v>
       </c>
       <c r="R19" t="n">
-        <v>78.7631179701948</v>
+        <v>78.76311797019481</v>
       </c>
       <c r="S19" t="n">
         <v>30.52747617243498</v>
       </c>
       <c r="T19" t="n">
-        <v>7.484566406387294</v>
+        <v>7.484566406387295</v>
       </c>
       <c r="U19" t="n">
-        <v>0.09554765625175282</v>
+        <v>0.09554765625175284</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.905130339267612</v>
+        <v>3.905130339267613</v>
       </c>
       <c r="H20" t="n">
-        <v>39.99341608702444</v>
+        <v>39.99341608702445</v>
       </c>
       <c r="I20" t="n">
         <v>150.5525374046148</v>
       </c>
       <c r="J20" t="n">
-        <v>331.4430561324148</v>
+        <v>331.4430561324149</v>
       </c>
       <c r="K20" t="n">
         <v>496.747223393613</v>
@@ -32484,13 +32484,13 @@
         <v>685.7067176849247</v>
       </c>
       <c r="N20" t="n">
-        <v>696.8021692613688</v>
+        <v>696.8021692613689</v>
       </c>
       <c r="O20" t="n">
-        <v>657.9705294502764</v>
+        <v>657.9705294502766</v>
       </c>
       <c r="P20" t="n">
-        <v>561.5626241996072</v>
+        <v>561.5626241996073</v>
       </c>
       <c r="Q20" t="n">
         <v>421.7101439245857</v>
@@ -32499,13 +32499,13 @@
         <v>245.3056436740194</v>
       </c>
       <c r="S20" t="n">
-        <v>88.98815760606081</v>
+        <v>88.98815760606082</v>
       </c>
       <c r="T20" t="n">
         <v>17.09470806014398</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3124104271414089</v>
+        <v>0.312410427141409</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,13 +32542,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.08942893576946</v>
+        <v>2.089428935769461</v>
       </c>
       <c r="H21" t="n">
         <v>20.17948472177348</v>
       </c>
       <c r="I21" t="n">
-        <v>71.93867169206257</v>
+        <v>71.93867169206258</v>
       </c>
       <c r="J21" t="n">
         <v>197.4052136202191</v>
@@ -32557,22 +32557,22 @@
         <v>337.396952316773</v>
       </c>
       <c r="L21" t="n">
-        <v>453.6718397599436</v>
+        <v>453.6718397599437</v>
       </c>
       <c r="M21" t="n">
-        <v>529.4136386815865</v>
+        <v>529.4136386815866</v>
       </c>
       <c r="N21" t="n">
-        <v>543.4256423780405</v>
+        <v>543.4256423780406</v>
       </c>
       <c r="O21" t="n">
         <v>497.1282959591488</v>
       </c>
       <c r="P21" t="n">
-        <v>398.9892851119771</v>
+        <v>398.9892851119772</v>
       </c>
       <c r="Q21" t="n">
-        <v>266.7137708185718</v>
+        <v>266.7137708185719</v>
       </c>
       <c r="R21" t="n">
         <v>129.7278772576864</v>
@@ -32581,7 +32581,7 @@
         <v>38.81022606571781</v>
       </c>
       <c r="T21" t="n">
-        <v>8.42186487707076</v>
+        <v>8.421864877070762</v>
       </c>
       <c r="U21" t="n">
         <v>0.137462429984833</v>
@@ -32627,13 +32627,13 @@
         <v>15.5742679690357</v>
       </c>
       <c r="I22" t="n">
-        <v>52.67860781346634</v>
+        <v>52.67860781346635</v>
       </c>
       <c r="J22" t="n">
         <v>123.8456871116468</v>
       </c>
       <c r="K22" t="n">
-        <v>203.5165078162332</v>
+        <v>203.5165078162333</v>
       </c>
       <c r="L22" t="n">
         <v>260.4310617235274</v>
@@ -32645,7 +32645,7 @@
         <v>268.0589496142924</v>
       </c>
       <c r="O22" t="n">
-        <v>247.5958265670419</v>
+        <v>247.595826567042</v>
       </c>
       <c r="P22" t="n">
         <v>211.8610031288863</v>
@@ -32654,16 +32654,16 @@
         <v>146.6815769558157</v>
       </c>
       <c r="R22" t="n">
-        <v>78.7631179701948</v>
+        <v>78.76311797019481</v>
       </c>
       <c r="S22" t="n">
         <v>30.52747617243498</v>
       </c>
       <c r="T22" t="n">
-        <v>7.484566406387294</v>
+        <v>7.484566406387295</v>
       </c>
       <c r="U22" t="n">
-        <v>0.09554765625175282</v>
+        <v>0.09554765625175284</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.905130339267612</v>
+        <v>3.905130339267613</v>
       </c>
       <c r="H23" t="n">
-        <v>39.99341608702444</v>
+        <v>39.99341608702445</v>
       </c>
       <c r="I23" t="n">
         <v>150.5525374046148</v>
       </c>
       <c r="J23" t="n">
-        <v>331.4430561324148</v>
+        <v>331.4430561324149</v>
       </c>
       <c r="K23" t="n">
         <v>496.747223393613</v>
@@ -32721,13 +32721,13 @@
         <v>685.7067176849247</v>
       </c>
       <c r="N23" t="n">
-        <v>696.8021692613688</v>
+        <v>696.8021692613689</v>
       </c>
       <c r="O23" t="n">
-        <v>657.9705294502764</v>
+        <v>657.9705294502766</v>
       </c>
       <c r="P23" t="n">
-        <v>561.5626241996072</v>
+        <v>561.5626241996073</v>
       </c>
       <c r="Q23" t="n">
         <v>421.7101439245857</v>
@@ -32736,13 +32736,13 @@
         <v>245.3056436740194</v>
       </c>
       <c r="S23" t="n">
-        <v>88.98815760606081</v>
+        <v>88.98815760606082</v>
       </c>
       <c r="T23" t="n">
         <v>17.09470806014398</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3124104271414089</v>
+        <v>0.312410427141409</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,13 +32779,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.08942893576946</v>
+        <v>2.089428935769461</v>
       </c>
       <c r="H24" t="n">
         <v>20.17948472177348</v>
       </c>
       <c r="I24" t="n">
-        <v>71.93867169206257</v>
+        <v>71.93867169206258</v>
       </c>
       <c r="J24" t="n">
         <v>197.4052136202191</v>
@@ -32794,22 +32794,22 @@
         <v>337.396952316773</v>
       </c>
       <c r="L24" t="n">
-        <v>453.6718397599436</v>
+        <v>453.6718397599437</v>
       </c>
       <c r="M24" t="n">
-        <v>529.4136386815865</v>
+        <v>529.4136386815866</v>
       </c>
       <c r="N24" t="n">
-        <v>543.4256423780405</v>
+        <v>543.4256423780406</v>
       </c>
       <c r="O24" t="n">
         <v>497.1282959591488</v>
       </c>
       <c r="P24" t="n">
-        <v>398.9892851119771</v>
+        <v>398.9892851119772</v>
       </c>
       <c r="Q24" t="n">
-        <v>266.7137708185718</v>
+        <v>266.7137708185719</v>
       </c>
       <c r="R24" t="n">
         <v>129.7278772576864</v>
@@ -32818,7 +32818,7 @@
         <v>38.81022606571781</v>
       </c>
       <c r="T24" t="n">
-        <v>8.42186487707076</v>
+        <v>8.421864877070762</v>
       </c>
       <c r="U24" t="n">
         <v>0.137462429984833</v>
@@ -32864,13 +32864,13 @@
         <v>15.5742679690357</v>
       </c>
       <c r="I25" t="n">
-        <v>52.67860781346634</v>
+        <v>52.67860781346635</v>
       </c>
       <c r="J25" t="n">
         <v>123.8456871116468</v>
       </c>
       <c r="K25" t="n">
-        <v>203.5165078162332</v>
+        <v>203.5165078162333</v>
       </c>
       <c r="L25" t="n">
         <v>260.4310617235274</v>
@@ -32882,7 +32882,7 @@
         <v>268.0589496142924</v>
       </c>
       <c r="O25" t="n">
-        <v>247.5958265670419</v>
+        <v>247.595826567042</v>
       </c>
       <c r="P25" t="n">
         <v>211.8610031288863</v>
@@ -32891,16 +32891,16 @@
         <v>146.6815769558157</v>
       </c>
       <c r="R25" t="n">
-        <v>78.7631179701948</v>
+        <v>78.76311797019481</v>
       </c>
       <c r="S25" t="n">
         <v>30.52747617243498</v>
       </c>
       <c r="T25" t="n">
-        <v>7.484566406387294</v>
+        <v>7.484566406387295</v>
       </c>
       <c r="U25" t="n">
-        <v>0.09554765625175282</v>
+        <v>0.09554765625175284</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.905130339267612</v>
+        <v>3.905130339267613</v>
       </c>
       <c r="H26" t="n">
-        <v>39.99341608702444</v>
+        <v>39.99341608702445</v>
       </c>
       <c r="I26" t="n">
         <v>150.5525374046148</v>
       </c>
       <c r="J26" t="n">
-        <v>331.4430561324148</v>
+        <v>331.4430561324149</v>
       </c>
       <c r="K26" t="n">
         <v>496.747223393613</v>
@@ -32958,13 +32958,13 @@
         <v>685.7067176849247</v>
       </c>
       <c r="N26" t="n">
-        <v>696.8021692613688</v>
+        <v>696.8021692613689</v>
       </c>
       <c r="O26" t="n">
-        <v>657.9705294502764</v>
+        <v>657.9705294502766</v>
       </c>
       <c r="P26" t="n">
-        <v>561.5626241996072</v>
+        <v>561.5626241996073</v>
       </c>
       <c r="Q26" t="n">
         <v>421.7101439245857</v>
@@ -32973,13 +32973,13 @@
         <v>245.3056436740194</v>
       </c>
       <c r="S26" t="n">
-        <v>88.98815760606081</v>
+        <v>88.98815760606082</v>
       </c>
       <c r="T26" t="n">
         <v>17.09470806014398</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3124104271414089</v>
+        <v>0.312410427141409</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,13 +33016,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.08942893576946</v>
+        <v>2.089428935769461</v>
       </c>
       <c r="H27" t="n">
         <v>20.17948472177348</v>
       </c>
       <c r="I27" t="n">
-        <v>71.93867169206257</v>
+        <v>71.93867169206258</v>
       </c>
       <c r="J27" t="n">
         <v>197.4052136202191</v>
@@ -33031,22 +33031,22 @@
         <v>337.396952316773</v>
       </c>
       <c r="L27" t="n">
-        <v>453.6718397599436</v>
+        <v>453.6718397599437</v>
       </c>
       <c r="M27" t="n">
-        <v>529.4136386815865</v>
+        <v>529.4136386815866</v>
       </c>
       <c r="N27" t="n">
-        <v>543.4256423780405</v>
+        <v>543.4256423780406</v>
       </c>
       <c r="O27" t="n">
         <v>497.1282959591488</v>
       </c>
       <c r="P27" t="n">
-        <v>398.9892851119771</v>
+        <v>398.9892851119772</v>
       </c>
       <c r="Q27" t="n">
-        <v>266.7137708185718</v>
+        <v>266.7137708185719</v>
       </c>
       <c r="R27" t="n">
         <v>129.7278772576864</v>
@@ -33055,7 +33055,7 @@
         <v>38.81022606571781</v>
       </c>
       <c r="T27" t="n">
-        <v>8.42186487707076</v>
+        <v>8.421864877070762</v>
       </c>
       <c r="U27" t="n">
         <v>0.137462429984833</v>
@@ -33101,13 +33101,13 @@
         <v>15.5742679690357</v>
       </c>
       <c r="I28" t="n">
-        <v>52.67860781346634</v>
+        <v>52.67860781346635</v>
       </c>
       <c r="J28" t="n">
         <v>123.8456871116468</v>
       </c>
       <c r="K28" t="n">
-        <v>203.5165078162332</v>
+        <v>203.5165078162333</v>
       </c>
       <c r="L28" t="n">
         <v>260.4310617235274</v>
@@ -33119,7 +33119,7 @@
         <v>268.0589496142924</v>
       </c>
       <c r="O28" t="n">
-        <v>247.5958265670419</v>
+        <v>247.595826567042</v>
       </c>
       <c r="P28" t="n">
         <v>211.8610031288863</v>
@@ -33128,16 +33128,16 @@
         <v>146.6815769558157</v>
       </c>
       <c r="R28" t="n">
-        <v>78.7631179701948</v>
+        <v>78.76311797019481</v>
       </c>
       <c r="S28" t="n">
         <v>30.52747617243498</v>
       </c>
       <c r="T28" t="n">
-        <v>7.484566406387294</v>
+        <v>7.484566406387295</v>
       </c>
       <c r="U28" t="n">
-        <v>0.09554765625175282</v>
+        <v>0.09554765625175284</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.905130339267612</v>
+        <v>3.905130339267613</v>
       </c>
       <c r="H29" t="n">
-        <v>39.99341608702444</v>
+        <v>39.99341608702445</v>
       </c>
       <c r="I29" t="n">
         <v>150.5525374046148</v>
       </c>
       <c r="J29" t="n">
-        <v>331.4430561324148</v>
+        <v>331.4430561324149</v>
       </c>
       <c r="K29" t="n">
         <v>496.747223393613</v>
@@ -33195,13 +33195,13 @@
         <v>685.7067176849247</v>
       </c>
       <c r="N29" t="n">
-        <v>696.8021692613688</v>
+        <v>696.8021692613689</v>
       </c>
       <c r="O29" t="n">
-        <v>657.9705294502764</v>
+        <v>657.9705294502766</v>
       </c>
       <c r="P29" t="n">
-        <v>561.5626241996072</v>
+        <v>561.5626241996073</v>
       </c>
       <c r="Q29" t="n">
         <v>421.7101439245857</v>
@@ -33210,13 +33210,13 @@
         <v>245.3056436740194</v>
       </c>
       <c r="S29" t="n">
-        <v>88.98815760606081</v>
+        <v>88.98815760606082</v>
       </c>
       <c r="T29" t="n">
         <v>17.09470806014398</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3124104271414089</v>
+        <v>0.312410427141409</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,13 +33253,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.08942893576946</v>
+        <v>2.089428935769461</v>
       </c>
       <c r="H30" t="n">
         <v>20.17948472177348</v>
       </c>
       <c r="I30" t="n">
-        <v>71.93867169206257</v>
+        <v>71.93867169206258</v>
       </c>
       <c r="J30" t="n">
         <v>197.4052136202191</v>
@@ -33268,22 +33268,22 @@
         <v>337.396952316773</v>
       </c>
       <c r="L30" t="n">
-        <v>453.6718397599436</v>
+        <v>453.6718397599437</v>
       </c>
       <c r="M30" t="n">
-        <v>529.4136386815865</v>
+        <v>529.4136386815866</v>
       </c>
       <c r="N30" t="n">
-        <v>543.4256423780405</v>
+        <v>543.4256423780406</v>
       </c>
       <c r="O30" t="n">
         <v>497.1282959591488</v>
       </c>
       <c r="P30" t="n">
-        <v>398.9892851119771</v>
+        <v>398.9892851119772</v>
       </c>
       <c r="Q30" t="n">
-        <v>266.7137708185718</v>
+        <v>266.7137708185719</v>
       </c>
       <c r="R30" t="n">
         <v>129.7278772576864</v>
@@ -33292,7 +33292,7 @@
         <v>38.81022606571781</v>
       </c>
       <c r="T30" t="n">
-        <v>8.42186487707076</v>
+        <v>8.421864877070762</v>
       </c>
       <c r="U30" t="n">
         <v>0.137462429984833</v>
@@ -33338,13 +33338,13 @@
         <v>15.5742679690357</v>
       </c>
       <c r="I31" t="n">
-        <v>52.67860781346634</v>
+        <v>52.67860781346635</v>
       </c>
       <c r="J31" t="n">
         <v>123.8456871116468</v>
       </c>
       <c r="K31" t="n">
-        <v>203.5165078162332</v>
+        <v>203.5165078162333</v>
       </c>
       <c r="L31" t="n">
         <v>260.4310617235274</v>
@@ -33356,7 +33356,7 @@
         <v>268.0589496142924</v>
       </c>
       <c r="O31" t="n">
-        <v>247.5958265670419</v>
+        <v>247.595826567042</v>
       </c>
       <c r="P31" t="n">
         <v>211.8610031288863</v>
@@ -33365,16 +33365,16 @@
         <v>146.6815769558157</v>
       </c>
       <c r="R31" t="n">
-        <v>78.7631179701948</v>
+        <v>78.76311797019481</v>
       </c>
       <c r="S31" t="n">
         <v>30.52747617243498</v>
       </c>
       <c r="T31" t="n">
-        <v>7.484566406387294</v>
+        <v>7.484566406387295</v>
       </c>
       <c r="U31" t="n">
-        <v>0.09554765625175282</v>
+        <v>0.09554765625175284</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.905130339267612</v>
+        <v>3.905130339267613</v>
       </c>
       <c r="H32" t="n">
-        <v>39.99341608702444</v>
+        <v>39.99341608702445</v>
       </c>
       <c r="I32" t="n">
         <v>150.5525374046148</v>
       </c>
       <c r="J32" t="n">
-        <v>331.4430561324148</v>
+        <v>331.4430561324149</v>
       </c>
       <c r="K32" t="n">
         <v>496.747223393613</v>
@@ -33432,13 +33432,13 @@
         <v>685.7067176849247</v>
       </c>
       <c r="N32" t="n">
-        <v>696.8021692613688</v>
+        <v>696.8021692613689</v>
       </c>
       <c r="O32" t="n">
-        <v>657.9705294502764</v>
+        <v>657.9705294502766</v>
       </c>
       <c r="P32" t="n">
-        <v>561.5626241996072</v>
+        <v>561.5626241996073</v>
       </c>
       <c r="Q32" t="n">
         <v>421.7101439245857</v>
@@ -33447,13 +33447,13 @@
         <v>245.3056436740194</v>
       </c>
       <c r="S32" t="n">
-        <v>88.98815760606081</v>
+        <v>88.98815760606082</v>
       </c>
       <c r="T32" t="n">
         <v>17.09470806014398</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3124104271414089</v>
+        <v>0.312410427141409</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,13 +33490,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.08942893576946</v>
+        <v>2.089428935769461</v>
       </c>
       <c r="H33" t="n">
         <v>20.17948472177348</v>
       </c>
       <c r="I33" t="n">
-        <v>71.93867169206257</v>
+        <v>71.93867169206258</v>
       </c>
       <c r="J33" t="n">
         <v>197.4052136202191</v>
@@ -33505,22 +33505,22 @@
         <v>337.396952316773</v>
       </c>
       <c r="L33" t="n">
-        <v>453.6718397599436</v>
+        <v>453.6718397599437</v>
       </c>
       <c r="M33" t="n">
-        <v>529.4136386815865</v>
+        <v>529.4136386815866</v>
       </c>
       <c r="N33" t="n">
-        <v>543.4256423780405</v>
+        <v>543.4256423780406</v>
       </c>
       <c r="O33" t="n">
         <v>497.1282959591488</v>
       </c>
       <c r="P33" t="n">
-        <v>398.9892851119771</v>
+        <v>398.9892851119772</v>
       </c>
       <c r="Q33" t="n">
-        <v>266.7137708185718</v>
+        <v>266.7137708185719</v>
       </c>
       <c r="R33" t="n">
         <v>129.7278772576864</v>
@@ -33529,7 +33529,7 @@
         <v>38.81022606571781</v>
       </c>
       <c r="T33" t="n">
-        <v>8.42186487707076</v>
+        <v>8.421864877070762</v>
       </c>
       <c r="U33" t="n">
         <v>0.137462429984833</v>
@@ -33575,13 +33575,13 @@
         <v>15.5742679690357</v>
       </c>
       <c r="I34" t="n">
-        <v>52.67860781346634</v>
+        <v>52.67860781346635</v>
       </c>
       <c r="J34" t="n">
         <v>123.8456871116468</v>
       </c>
       <c r="K34" t="n">
-        <v>203.5165078162332</v>
+        <v>203.5165078162333</v>
       </c>
       <c r="L34" t="n">
         <v>260.4310617235274</v>
@@ -33593,7 +33593,7 @@
         <v>268.0589496142924</v>
       </c>
       <c r="O34" t="n">
-        <v>247.5958265670419</v>
+        <v>247.595826567042</v>
       </c>
       <c r="P34" t="n">
         <v>211.8610031288863</v>
@@ -33602,16 +33602,16 @@
         <v>146.6815769558157</v>
       </c>
       <c r="R34" t="n">
-        <v>78.7631179701948</v>
+        <v>78.76311797019481</v>
       </c>
       <c r="S34" t="n">
         <v>30.52747617243498</v>
       </c>
       <c r="T34" t="n">
-        <v>7.484566406387294</v>
+        <v>7.484566406387295</v>
       </c>
       <c r="U34" t="n">
-        <v>0.09554765625175282</v>
+        <v>0.09554765625175284</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.905130339267612</v>
+        <v>3.905130339267613</v>
       </c>
       <c r="H35" t="n">
-        <v>39.99341608702444</v>
+        <v>39.99341608702445</v>
       </c>
       <c r="I35" t="n">
         <v>150.5525374046148</v>
       </c>
       <c r="J35" t="n">
-        <v>331.4430561324148</v>
+        <v>331.4430561324149</v>
       </c>
       <c r="K35" t="n">
         <v>496.747223393613</v>
@@ -33669,13 +33669,13 @@
         <v>685.7067176849247</v>
       </c>
       <c r="N35" t="n">
-        <v>696.8021692613688</v>
+        <v>696.8021692613689</v>
       </c>
       <c r="O35" t="n">
-        <v>657.9705294502764</v>
+        <v>657.9705294502766</v>
       </c>
       <c r="P35" t="n">
-        <v>561.5626241996072</v>
+        <v>561.5626241996073</v>
       </c>
       <c r="Q35" t="n">
         <v>421.7101439245857</v>
@@ -33684,13 +33684,13 @@
         <v>245.3056436740194</v>
       </c>
       <c r="S35" t="n">
-        <v>88.98815760606081</v>
+        <v>88.98815760606082</v>
       </c>
       <c r="T35" t="n">
         <v>17.09470806014398</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3124104271414089</v>
+        <v>0.312410427141409</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,13 +33727,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.08942893576946</v>
+        <v>2.089428935769461</v>
       </c>
       <c r="H36" t="n">
         <v>20.17948472177348</v>
       </c>
       <c r="I36" t="n">
-        <v>71.93867169206257</v>
+        <v>71.93867169206258</v>
       </c>
       <c r="J36" t="n">
         <v>197.4052136202191</v>
@@ -33742,22 +33742,22 @@
         <v>337.396952316773</v>
       </c>
       <c r="L36" t="n">
-        <v>453.6718397599436</v>
+        <v>453.6718397599437</v>
       </c>
       <c r="M36" t="n">
-        <v>529.4136386815865</v>
+        <v>529.4136386815866</v>
       </c>
       <c r="N36" t="n">
-        <v>543.4256423780405</v>
+        <v>543.4256423780406</v>
       </c>
       <c r="O36" t="n">
         <v>497.1282959591488</v>
       </c>
       <c r="P36" t="n">
-        <v>398.9892851119771</v>
+        <v>398.9892851119772</v>
       </c>
       <c r="Q36" t="n">
-        <v>266.7137708185718</v>
+        <v>266.7137708185719</v>
       </c>
       <c r="R36" t="n">
         <v>129.7278772576864</v>
@@ -33766,7 +33766,7 @@
         <v>38.81022606571781</v>
       </c>
       <c r="T36" t="n">
-        <v>8.42186487707076</v>
+        <v>8.421864877070762</v>
       </c>
       <c r="U36" t="n">
         <v>0.137462429984833</v>
@@ -33812,13 +33812,13 @@
         <v>15.5742679690357</v>
       </c>
       <c r="I37" t="n">
-        <v>52.67860781346634</v>
+        <v>52.67860781346635</v>
       </c>
       <c r="J37" t="n">
         <v>123.8456871116468</v>
       </c>
       <c r="K37" t="n">
-        <v>203.5165078162332</v>
+        <v>203.5165078162333</v>
       </c>
       <c r="L37" t="n">
         <v>260.4310617235274</v>
@@ -33830,7 +33830,7 @@
         <v>268.0589496142924</v>
       </c>
       <c r="O37" t="n">
-        <v>247.5958265670419</v>
+        <v>247.595826567042</v>
       </c>
       <c r="P37" t="n">
         <v>211.8610031288863</v>
@@ -33839,16 +33839,16 @@
         <v>146.6815769558157</v>
       </c>
       <c r="R37" t="n">
-        <v>78.7631179701948</v>
+        <v>78.76311797019481</v>
       </c>
       <c r="S37" t="n">
         <v>30.52747617243498</v>
       </c>
       <c r="T37" t="n">
-        <v>7.484566406387294</v>
+        <v>7.484566406387295</v>
       </c>
       <c r="U37" t="n">
-        <v>0.09554765625175282</v>
+        <v>0.09554765625175284</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.905130339267612</v>
+        <v>3.905130339267613</v>
       </c>
       <c r="H38" t="n">
-        <v>39.99341608702444</v>
+        <v>39.99341608702445</v>
       </c>
       <c r="I38" t="n">
         <v>150.5525374046148</v>
       </c>
       <c r="J38" t="n">
-        <v>331.4430561324148</v>
+        <v>331.4430561324149</v>
       </c>
       <c r="K38" t="n">
         <v>496.747223393613</v>
@@ -33906,13 +33906,13 @@
         <v>685.7067176849247</v>
       </c>
       <c r="N38" t="n">
-        <v>696.8021692613688</v>
+        <v>696.8021692613689</v>
       </c>
       <c r="O38" t="n">
-        <v>657.9705294502764</v>
+        <v>657.9705294502766</v>
       </c>
       <c r="P38" t="n">
-        <v>561.5626241996072</v>
+        <v>561.5626241996073</v>
       </c>
       <c r="Q38" t="n">
         <v>421.7101439245857</v>
@@ -33921,13 +33921,13 @@
         <v>245.3056436740194</v>
       </c>
       <c r="S38" t="n">
-        <v>88.98815760606081</v>
+        <v>88.98815760606082</v>
       </c>
       <c r="T38" t="n">
         <v>17.09470806014398</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3124104271414089</v>
+        <v>0.312410427141409</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,13 +33964,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.08942893576946</v>
+        <v>2.089428935769461</v>
       </c>
       <c r="H39" t="n">
         <v>20.17948472177348</v>
       </c>
       <c r="I39" t="n">
-        <v>71.93867169206257</v>
+        <v>71.93867169206258</v>
       </c>
       <c r="J39" t="n">
         <v>197.4052136202191</v>
@@ -33979,22 +33979,22 @@
         <v>337.396952316773</v>
       </c>
       <c r="L39" t="n">
-        <v>453.6718397599436</v>
+        <v>453.6718397599437</v>
       </c>
       <c r="M39" t="n">
-        <v>529.4136386815865</v>
+        <v>529.4136386815866</v>
       </c>
       <c r="N39" t="n">
-        <v>543.4256423780405</v>
+        <v>543.4256423780406</v>
       </c>
       <c r="O39" t="n">
         <v>497.1282959591488</v>
       </c>
       <c r="P39" t="n">
-        <v>398.9892851119771</v>
+        <v>398.9892851119772</v>
       </c>
       <c r="Q39" t="n">
-        <v>266.7137708185718</v>
+        <v>266.7137708185719</v>
       </c>
       <c r="R39" t="n">
         <v>129.7278772576864</v>
@@ -34003,7 +34003,7 @@
         <v>38.81022606571781</v>
       </c>
       <c r="T39" t="n">
-        <v>8.42186487707076</v>
+        <v>8.421864877070762</v>
       </c>
       <c r="U39" t="n">
         <v>0.137462429984833</v>
@@ -34049,13 +34049,13 @@
         <v>15.5742679690357</v>
       </c>
       <c r="I40" t="n">
-        <v>52.67860781346634</v>
+        <v>52.67860781346635</v>
       </c>
       <c r="J40" t="n">
         <v>123.8456871116468</v>
       </c>
       <c r="K40" t="n">
-        <v>203.5165078162332</v>
+        <v>203.5165078162333</v>
       </c>
       <c r="L40" t="n">
         <v>260.4310617235274</v>
@@ -34067,7 +34067,7 @@
         <v>268.0589496142924</v>
       </c>
       <c r="O40" t="n">
-        <v>247.5958265670419</v>
+        <v>247.595826567042</v>
       </c>
       <c r="P40" t="n">
         <v>211.8610031288863</v>
@@ -34076,16 +34076,16 @@
         <v>146.6815769558157</v>
       </c>
       <c r="R40" t="n">
-        <v>78.7631179701948</v>
+        <v>78.76311797019481</v>
       </c>
       <c r="S40" t="n">
         <v>30.52747617243498</v>
       </c>
       <c r="T40" t="n">
-        <v>7.484566406387294</v>
+        <v>7.484566406387295</v>
       </c>
       <c r="U40" t="n">
-        <v>0.09554765625175282</v>
+        <v>0.09554765625175284</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.905130339267612</v>
+        <v>3.905130339267613</v>
       </c>
       <c r="H41" t="n">
-        <v>39.99341608702444</v>
+        <v>39.99341608702445</v>
       </c>
       <c r="I41" t="n">
         <v>150.5525374046148</v>
       </c>
       <c r="J41" t="n">
-        <v>331.4430561324148</v>
+        <v>331.4430561324149</v>
       </c>
       <c r="K41" t="n">
         <v>496.747223393613</v>
@@ -34143,13 +34143,13 @@
         <v>685.7067176849247</v>
       </c>
       <c r="N41" t="n">
-        <v>696.8021692613688</v>
+        <v>696.8021692613689</v>
       </c>
       <c r="O41" t="n">
-        <v>657.9705294502764</v>
+        <v>657.9705294502766</v>
       </c>
       <c r="P41" t="n">
-        <v>561.5626241996072</v>
+        <v>561.5626241996073</v>
       </c>
       <c r="Q41" t="n">
         <v>421.7101439245857</v>
@@ -34158,13 +34158,13 @@
         <v>245.3056436740194</v>
       </c>
       <c r="S41" t="n">
-        <v>88.98815760606081</v>
+        <v>88.98815760606082</v>
       </c>
       <c r="T41" t="n">
         <v>17.09470806014398</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3124104271414089</v>
+        <v>0.312410427141409</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,13 +34201,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.08942893576946</v>
+        <v>2.089428935769461</v>
       </c>
       <c r="H42" t="n">
         <v>20.17948472177348</v>
       </c>
       <c r="I42" t="n">
-        <v>71.93867169206257</v>
+        <v>71.93867169206258</v>
       </c>
       <c r="J42" t="n">
         <v>197.4052136202191</v>
@@ -34216,22 +34216,22 @@
         <v>337.396952316773</v>
       </c>
       <c r="L42" t="n">
-        <v>453.6718397599436</v>
+        <v>453.6718397599437</v>
       </c>
       <c r="M42" t="n">
-        <v>529.4136386815865</v>
+        <v>529.4136386815866</v>
       </c>
       <c r="N42" t="n">
-        <v>543.4256423780405</v>
+        <v>543.4256423780406</v>
       </c>
       <c r="O42" t="n">
         <v>497.1282959591488</v>
       </c>
       <c r="P42" t="n">
-        <v>398.9892851119771</v>
+        <v>398.9892851119772</v>
       </c>
       <c r="Q42" t="n">
-        <v>266.7137708185718</v>
+        <v>266.7137708185719</v>
       </c>
       <c r="R42" t="n">
         <v>129.7278772576864</v>
@@ -34240,7 +34240,7 @@
         <v>38.81022606571781</v>
       </c>
       <c r="T42" t="n">
-        <v>8.42186487707076</v>
+        <v>8.421864877070762</v>
       </c>
       <c r="U42" t="n">
         <v>0.137462429984833</v>
@@ -34286,13 +34286,13 @@
         <v>15.5742679690357</v>
       </c>
       <c r="I43" t="n">
-        <v>52.67860781346634</v>
+        <v>52.67860781346635</v>
       </c>
       <c r="J43" t="n">
         <v>123.8456871116468</v>
       </c>
       <c r="K43" t="n">
-        <v>203.5165078162332</v>
+        <v>203.5165078162333</v>
       </c>
       <c r="L43" t="n">
         <v>260.4310617235274</v>
@@ -34304,7 +34304,7 @@
         <v>268.0589496142924</v>
       </c>
       <c r="O43" t="n">
-        <v>247.5958265670419</v>
+        <v>247.595826567042</v>
       </c>
       <c r="P43" t="n">
         <v>211.8610031288863</v>
@@ -34313,16 +34313,16 @@
         <v>146.6815769558157</v>
       </c>
       <c r="R43" t="n">
-        <v>78.7631179701948</v>
+        <v>78.76311797019481</v>
       </c>
       <c r="S43" t="n">
         <v>30.52747617243498</v>
       </c>
       <c r="T43" t="n">
-        <v>7.484566406387294</v>
+        <v>7.484566406387295</v>
       </c>
       <c r="U43" t="n">
-        <v>0.09554765625175282</v>
+        <v>0.09554765625175284</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.905130339267612</v>
+        <v>3.905130339267613</v>
       </c>
       <c r="H44" t="n">
-        <v>39.99341608702444</v>
+        <v>39.99341608702445</v>
       </c>
       <c r="I44" t="n">
         <v>150.5525374046148</v>
       </c>
       <c r="J44" t="n">
-        <v>331.4430561324148</v>
+        <v>331.4430561324149</v>
       </c>
       <c r="K44" t="n">
         <v>496.747223393613</v>
@@ -34380,13 +34380,13 @@
         <v>685.7067176849247</v>
       </c>
       <c r="N44" t="n">
-        <v>696.8021692613688</v>
+        <v>696.8021692613689</v>
       </c>
       <c r="O44" t="n">
-        <v>657.9705294502764</v>
+        <v>657.9705294502766</v>
       </c>
       <c r="P44" t="n">
-        <v>561.5626241996072</v>
+        <v>561.5626241996073</v>
       </c>
       <c r="Q44" t="n">
         <v>421.7101439245857</v>
@@ -34395,13 +34395,13 @@
         <v>245.3056436740194</v>
       </c>
       <c r="S44" t="n">
-        <v>88.98815760606081</v>
+        <v>88.98815760606082</v>
       </c>
       <c r="T44" t="n">
         <v>17.09470806014398</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3124104271414089</v>
+        <v>0.312410427141409</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,13 +34438,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.08942893576946</v>
+        <v>2.089428935769461</v>
       </c>
       <c r="H45" t="n">
         <v>20.17948472177348</v>
       </c>
       <c r="I45" t="n">
-        <v>71.93867169206257</v>
+        <v>71.93867169206258</v>
       </c>
       <c r="J45" t="n">
         <v>197.4052136202191</v>
@@ -34453,22 +34453,22 @@
         <v>337.396952316773</v>
       </c>
       <c r="L45" t="n">
-        <v>453.6718397599436</v>
+        <v>453.6718397599437</v>
       </c>
       <c r="M45" t="n">
-        <v>529.4136386815865</v>
+        <v>529.4136386815866</v>
       </c>
       <c r="N45" t="n">
-        <v>543.4256423780405</v>
+        <v>543.4256423780406</v>
       </c>
       <c r="O45" t="n">
         <v>497.1282959591488</v>
       </c>
       <c r="P45" t="n">
-        <v>398.9892851119771</v>
+        <v>398.9892851119772</v>
       </c>
       <c r="Q45" t="n">
-        <v>266.7137708185718</v>
+        <v>266.7137708185719</v>
       </c>
       <c r="R45" t="n">
         <v>129.7278772576864</v>
@@ -34477,7 +34477,7 @@
         <v>38.81022606571781</v>
       </c>
       <c r="T45" t="n">
-        <v>8.42186487707076</v>
+        <v>8.421864877070762</v>
       </c>
       <c r="U45" t="n">
         <v>0.137462429984833</v>
@@ -34523,13 +34523,13 @@
         <v>15.5742679690357</v>
       </c>
       <c r="I46" t="n">
-        <v>52.67860781346634</v>
+        <v>52.67860781346635</v>
       </c>
       <c r="J46" t="n">
         <v>123.8456871116468</v>
       </c>
       <c r="K46" t="n">
-        <v>203.5165078162332</v>
+        <v>203.5165078162333</v>
       </c>
       <c r="L46" t="n">
         <v>260.4310617235274</v>
@@ -34541,7 +34541,7 @@
         <v>268.0589496142924</v>
       </c>
       <c r="O46" t="n">
-        <v>247.5958265670419</v>
+        <v>247.595826567042</v>
       </c>
       <c r="P46" t="n">
         <v>211.8610031288863</v>
@@ -34550,16 +34550,16 @@
         <v>146.6815769558157</v>
       </c>
       <c r="R46" t="n">
-        <v>78.7631179701948</v>
+        <v>78.76311797019481</v>
       </c>
       <c r="S46" t="n">
         <v>30.52747617243498</v>
       </c>
       <c r="T46" t="n">
-        <v>7.484566406387294</v>
+        <v>7.484566406387295</v>
       </c>
       <c r="U46" t="n">
-        <v>0.09554765625175282</v>
+        <v>0.09554765625175284</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34783,7 +34783,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
@@ -34792,10 +34792,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>134.6170405889698</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>243.0338665604671</v>
@@ -35263,13 +35263,13 @@
         <v>263.2420339516666</v>
       </c>
       <c r="N9" t="n">
-        <v>207.4983704266081</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>263.0434990833253</v>
       </c>
       <c r="P9" t="n">
-        <v>193.9407825031299</v>
+        <v>9.770660483715774</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35348,7 +35348,7 @@
         <v>30.4508996191905</v>
       </c>
       <c r="P10" t="n">
-        <v>2.297740302025373</v>
+        <v>2.297740302025374</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>150.3971516057285</v>
+        <v>319.4937667778024</v>
       </c>
       <c r="K11" t="n">
-        <v>276.6573723486324</v>
+        <v>600.8027849197972</v>
       </c>
       <c r="L11" t="n">
         <v>798.1536555944375</v>
       </c>
       <c r="M11" t="n">
-        <v>904.8740179504845</v>
+        <v>455.360484457652</v>
       </c>
       <c r="N11" t="n">
-        <v>904.7360300767621</v>
+        <v>625.4267664921068</v>
       </c>
       <c r="O11" t="n">
-        <v>808.672499291335</v>
+        <v>808.6724992913352</v>
       </c>
       <c r="P11" t="n">
-        <v>416.5475672815718</v>
+        <v>652.1283366158204</v>
       </c>
       <c r="Q11" t="n">
         <v>411.7194447100409</v>
       </c>
       <c r="R11" t="n">
-        <v>95.43652573286968</v>
+        <v>95.43652573286971</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>70.56758695355242</v>
+        <v>196.6586222939613</v>
       </c>
       <c r="K12" t="n">
-        <v>464.0207503549926</v>
+        <v>233.839165933967</v>
       </c>
       <c r="L12" t="n">
-        <v>315.1174599800694</v>
+        <v>315.1174599800695</v>
       </c>
       <c r="M12" t="n">
-        <v>387.2796047595681</v>
+        <v>387.2796047595683</v>
       </c>
       <c r="N12" t="n">
-        <v>412.0839302947072</v>
+        <v>412.0839302947073</v>
       </c>
       <c r="O12" t="n">
-        <v>490.0888332749809</v>
+        <v>354.5320515147044</v>
       </c>
       <c r="P12" t="n">
         <v>265.0148776976469</v>
       </c>
       <c r="Q12" t="n">
-        <v>126.7319967325503</v>
+        <v>336.8092844683995</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.57004310504327</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>30.48650699497402</v>
+        <v>30.48650699497404</v>
       </c>
       <c r="K13" t="n">
         <v>181.2470159903504</v>
@@ -35588,7 +35588,7 @@
         <v>209.1395623937798</v>
       </c>
       <c r="Q13" t="n">
-        <v>60.51953370412132</v>
+        <v>60.51953370412134</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>319.4937667778023</v>
+        <v>319.4937667778024</v>
       </c>
       <c r="K14" t="n">
-        <v>276.6573723486324</v>
+        <v>600.8027849197972</v>
       </c>
       <c r="L14" t="n">
         <v>798.1536555944375</v>
@@ -35658,19 +35658,19 @@
         <v>904.8740179504845</v>
       </c>
       <c r="N14" t="n">
-        <v>904.7360300767621</v>
+        <v>497.7119411707569</v>
       </c>
       <c r="O14" t="n">
-        <v>469.7115346579951</v>
+        <v>808.6724992913352</v>
       </c>
       <c r="P14" t="n">
-        <v>652.1283366158202</v>
+        <v>330.3296284443377</v>
       </c>
       <c r="Q14" t="n">
         <v>411.7194447100409</v>
       </c>
       <c r="R14" t="n">
-        <v>29.72010585988724</v>
+        <v>95.43652573286971</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>70.56758695355242</v>
+        <v>196.6586222939613</v>
       </c>
       <c r="K15" t="n">
         <v>199.555513342414</v>
       </c>
       <c r="L15" t="n">
-        <v>321.277159476195</v>
+        <v>315.1174599800695</v>
       </c>
       <c r="M15" t="n">
-        <v>387.2796047595681</v>
+        <v>387.2796047595683</v>
       </c>
       <c r="N15" t="n">
-        <v>412.0839302947072</v>
+        <v>412.0839302947073</v>
       </c>
       <c r="O15" t="n">
-        <v>748.3943707914339</v>
+        <v>354.5320515147044</v>
       </c>
       <c r="P15" t="n">
-        <v>265.0148776976469</v>
+        <v>299.2985302892</v>
       </c>
       <c r="Q15" t="n">
-        <v>126.7319967325503</v>
+        <v>336.8092844683995</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.57004310504327</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>30.48650699497402</v>
+        <v>30.48650699497404</v>
       </c>
       <c r="K16" t="n">
         <v>181.2470159903504</v>
@@ -35825,7 +35825,7 @@
         <v>209.1395623937798</v>
       </c>
       <c r="Q16" t="n">
-        <v>60.51953370412132</v>
+        <v>60.51953370412134</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>319.4937667778023</v>
+        <v>319.4937667778024</v>
       </c>
       <c r="K17" t="n">
-        <v>276.6573723486324</v>
+        <v>387.2099412081236</v>
       </c>
       <c r="L17" t="n">
         <v>798.1536555944375</v>
       </c>
       <c r="M17" t="n">
-        <v>904.8740179504845</v>
+        <v>455.360484457652</v>
       </c>
       <c r="N17" t="n">
-        <v>904.7360300767621</v>
+        <v>904.7360300767622</v>
       </c>
       <c r="O17" t="n">
-        <v>682.0265253179</v>
+        <v>808.6724992913352</v>
       </c>
       <c r="P17" t="n">
-        <v>652.1283366158202</v>
+        <v>652.1283366158204</v>
       </c>
       <c r="Q17" t="n">
-        <v>199.4044540501362</v>
+        <v>411.7194447100409</v>
       </c>
       <c r="R17" t="n">
-        <v>29.72010585988724</v>
+        <v>29.72010585988727</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,22 +35968,22 @@
         <v>199.555513342414</v>
       </c>
       <c r="L18" t="n">
-        <v>589.0484434125158</v>
+        <v>315.1174599800695</v>
       </c>
       <c r="M18" t="n">
-        <v>387.2796047595681</v>
+        <v>387.2796047595683</v>
       </c>
       <c r="N18" t="n">
-        <v>412.0839302947072</v>
+        <v>475.9376259913039</v>
       </c>
       <c r="O18" t="n">
-        <v>354.5320515147043</v>
+        <v>354.5320515147044</v>
       </c>
       <c r="P18" t="n">
         <v>265.0148776976469</v>
       </c>
       <c r="Q18" t="n">
-        <v>126.7319967325503</v>
+        <v>336.8092844683995</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>30.48650699497402</v>
+        <v>30.48650699497404</v>
       </c>
       <c r="K19" t="n">
         <v>181.2470159903504</v>
@@ -36062,7 +36062,7 @@
         <v>209.1395623937798</v>
       </c>
       <c r="Q19" t="n">
-        <v>60.51953370412132</v>
+        <v>60.51953370412134</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>150.3971516057285</v>
+        <v>319.4937667778024</v>
       </c>
       <c r="K20" t="n">
-        <v>556.3065563801982</v>
+        <v>276.6573723486325</v>
       </c>
       <c r="L20" t="n">
         <v>798.1536555944375</v>
       </c>
       <c r="M20" t="n">
-        <v>455.360484457652</v>
+        <v>904.8740179504845</v>
       </c>
       <c r="N20" t="n">
-        <v>904.7360300767621</v>
+        <v>904.7360300767622</v>
       </c>
       <c r="O20" t="n">
-        <v>808.672499291335</v>
+        <v>808.6724992913352</v>
       </c>
       <c r="P20" t="n">
-        <v>652.1283366158202</v>
+        <v>525.4823626423841</v>
       </c>
       <c r="Q20" t="n">
-        <v>411.7194447100409</v>
+        <v>199.4044540501363</v>
       </c>
       <c r="R20" t="n">
-        <v>29.72010585988724</v>
+        <v>29.72010585988727</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>70.56758695355242</v>
       </c>
       <c r="K21" t="n">
-        <v>199.555513342414</v>
+        <v>464.0207503549926</v>
       </c>
       <c r="L21" t="n">
-        <v>315.1174599800694</v>
+        <v>315.1174599800695</v>
       </c>
       <c r="M21" t="n">
-        <v>387.2796047595681</v>
+        <v>387.2796047595683</v>
       </c>
       <c r="N21" t="n">
-        <v>412.0839302947072</v>
+        <v>412.0839302947073</v>
       </c>
       <c r="O21" t="n">
-        <v>436.0913016476221</v>
+        <v>354.5320515147044</v>
       </c>
       <c r="P21" t="n">
-        <v>583.477646337584</v>
+        <v>265.0148776976469</v>
       </c>
       <c r="Q21" t="n">
-        <v>126.7319967325503</v>
+        <v>262.2887784928259</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>30.48650699497402</v>
+        <v>30.48650699497404</v>
       </c>
       <c r="K22" t="n">
         <v>181.2470159903504</v>
@@ -36299,7 +36299,7 @@
         <v>209.1395623937798</v>
       </c>
       <c r="Q22" t="n">
-        <v>60.51953370412132</v>
+        <v>60.51953370412134</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>150.3971516057285</v>
+        <v>319.4937667778024</v>
       </c>
       <c r="K23" t="n">
         <v>600.8027849197972</v>
@@ -36366,22 +36366,22 @@
         <v>798.1536555944375</v>
       </c>
       <c r="M23" t="n">
-        <v>904.8740179504845</v>
+        <v>455.360484457652</v>
       </c>
       <c r="N23" t="n">
-        <v>904.7360300767621</v>
+        <v>625.4267664921068</v>
       </c>
       <c r="O23" t="n">
-        <v>427.8723180285897</v>
+        <v>808.6724992913352</v>
       </c>
       <c r="P23" t="n">
-        <v>652.1283366158202</v>
+        <v>652.1283366158204</v>
       </c>
       <c r="Q23" t="n">
-        <v>298.5098639403545</v>
+        <v>411.7194447100409</v>
       </c>
       <c r="R23" t="n">
-        <v>29.72010585988724</v>
+        <v>95.43652573286971</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>70.56758695355242</v>
       </c>
       <c r="K24" t="n">
-        <v>199.555513342414</v>
+        <v>464.0207503549926</v>
       </c>
       <c r="L24" t="n">
-        <v>321.277159476195</v>
+        <v>315.1174599800695</v>
       </c>
       <c r="M24" t="n">
-        <v>387.2796047595681</v>
+        <v>387.2796047595683</v>
       </c>
       <c r="N24" t="n">
-        <v>412.0839302947072</v>
+        <v>412.0839302947073</v>
       </c>
       <c r="O24" t="n">
-        <v>748.3943707914339</v>
+        <v>354.5320515147044</v>
       </c>
       <c r="P24" t="n">
         <v>265.0148776976469</v>
       </c>
       <c r="Q24" t="n">
-        <v>126.7319967325503</v>
+        <v>262.2887784928259</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>30.48650699497402</v>
+        <v>30.48650699497404</v>
       </c>
       <c r="K25" t="n">
         <v>181.2470159903504</v>
@@ -36536,7 +36536,7 @@
         <v>209.1395623937798</v>
       </c>
       <c r="Q25" t="n">
-        <v>60.51953370412132</v>
+        <v>60.51953370412134</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>150.3971516057285</v>
+        <v>150.3971516057286</v>
       </c>
       <c r="K26" t="n">
-        <v>600.8027849197972</v>
+        <v>276.6573723486325</v>
       </c>
       <c r="L26" t="n">
-        <v>380.4924410439871</v>
+        <v>798.1536555944375</v>
       </c>
       <c r="M26" t="n">
         <v>904.8740179504845</v>
       </c>
       <c r="N26" t="n">
-        <v>904.7360300767621</v>
+        <v>904.7360300767622</v>
       </c>
       <c r="O26" t="n">
-        <v>808.672499291335</v>
+        <v>808.6724992913352</v>
       </c>
       <c r="P26" t="n">
-        <v>575.7797891338394</v>
+        <v>628.8625579414758</v>
       </c>
       <c r="Q26" t="n">
-        <v>411.7194447100409</v>
+        <v>199.4044540501363</v>
       </c>
       <c r="R26" t="n">
-        <v>29.72010585988724</v>
+        <v>95.43652573286971</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>99.74926042294851</v>
+        <v>196.6586222939613</v>
       </c>
       <c r="K27" t="n">
-        <v>199.555513342414</v>
+        <v>233.839165933967</v>
       </c>
       <c r="L27" t="n">
-        <v>685.9578052835286</v>
+        <v>315.1174599800695</v>
       </c>
       <c r="M27" t="n">
-        <v>387.2796047595681</v>
+        <v>387.2796047595683</v>
       </c>
       <c r="N27" t="n">
-        <v>412.0839302947072</v>
+        <v>412.0839302947073</v>
       </c>
       <c r="O27" t="n">
-        <v>354.5320515147043</v>
+        <v>354.5320515147044</v>
       </c>
       <c r="P27" t="n">
         <v>265.0148776976469</v>
       </c>
       <c r="Q27" t="n">
-        <v>126.7319967325503</v>
+        <v>336.8092844683995</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.57004310504327</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>30.48650699497402</v>
+        <v>30.48650699497404</v>
       </c>
       <c r="K28" t="n">
         <v>181.2470159903504</v>
@@ -36773,7 +36773,7 @@
         <v>209.1395623937798</v>
       </c>
       <c r="Q28" t="n">
-        <v>60.51953370412132</v>
+        <v>60.51953370412134</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>319.4937667778023</v>
+        <v>190.5010884046845</v>
       </c>
       <c r="K29" t="n">
         <v>600.8027849197972</v>
@@ -36840,22 +36840,22 @@
         <v>798.1536555944375</v>
       </c>
       <c r="M29" t="n">
-        <v>455.360484457652</v>
+        <v>904.8740179504845</v>
       </c>
       <c r="N29" t="n">
-        <v>904.7360300767621</v>
+        <v>904.7360300767622</v>
       </c>
       <c r="O29" t="n">
-        <v>807.3946462395675</v>
+        <v>808.6724992913352</v>
       </c>
       <c r="P29" t="n">
-        <v>652.1283366158202</v>
+        <v>330.3296284443377</v>
       </c>
       <c r="Q29" t="n">
-        <v>199.4044540501362</v>
+        <v>199.4044540501363</v>
       </c>
       <c r="R29" t="n">
-        <v>29.72010585988724</v>
+        <v>29.72010585988727</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>70.56758695355242</v>
+        <v>196.6586222939613</v>
       </c>
       <c r="K30" t="n">
-        <v>199.555513342414</v>
+        <v>263.4092090390104</v>
       </c>
       <c r="L30" t="n">
-        <v>315.1174599800694</v>
+        <v>315.1174599800695</v>
       </c>
       <c r="M30" t="n">
-        <v>387.2796047595681</v>
+        <v>387.2796047595683</v>
       </c>
       <c r="N30" t="n">
-        <v>412.0839302947072</v>
+        <v>412.0839302947073</v>
       </c>
       <c r="O30" t="n">
-        <v>748.3943707914339</v>
+        <v>354.5320515147044</v>
       </c>
       <c r="P30" t="n">
         <v>265.0148776976469</v>
       </c>
       <c r="Q30" t="n">
-        <v>126.7319967325503</v>
+        <v>336.8092844683995</v>
       </c>
       <c r="R30" t="n">
-        <v>6.159699496125504</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>30.48650699497402</v>
+        <v>30.48650699497404</v>
       </c>
       <c r="K31" t="n">
         <v>181.2470159903504</v>
@@ -37010,7 +37010,7 @@
         <v>209.1395623937798</v>
       </c>
       <c r="Q31" t="n">
-        <v>60.51953370412132</v>
+        <v>60.51953370412134</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>318.2159137260344</v>
+        <v>319.4937667778024</v>
       </c>
       <c r="K32" t="n">
-        <v>600.8027849197972</v>
+        <v>406.0936866736973</v>
       </c>
       <c r="L32" t="n">
         <v>798.1536555944375</v>
       </c>
       <c r="M32" t="n">
-        <v>455.360484457652</v>
+        <v>904.8740179504845</v>
       </c>
       <c r="N32" t="n">
-        <v>904.7360300767621</v>
+        <v>904.7360300767622</v>
       </c>
       <c r="O32" t="n">
-        <v>808.672499291335</v>
+        <v>808.6724992913352</v>
       </c>
       <c r="P32" t="n">
-        <v>652.1283366158202</v>
+        <v>330.3296284443377</v>
       </c>
       <c r="Q32" t="n">
-        <v>199.4044540501362</v>
+        <v>199.4044540501363</v>
       </c>
       <c r="R32" t="n">
-        <v>29.72010585988724</v>
+        <v>95.43652573286971</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>70.56758695355242</v>
       </c>
       <c r="K33" t="n">
-        <v>199.555513342414</v>
+        <v>464.0207503549926</v>
       </c>
       <c r="L33" t="n">
-        <v>321.277159476195</v>
+        <v>315.1174599800695</v>
       </c>
       <c r="M33" t="n">
-        <v>387.2796047595681</v>
+        <v>387.2796047595683</v>
       </c>
       <c r="N33" t="n">
-        <v>412.0839302947072</v>
+        <v>412.0839302947073</v>
       </c>
       <c r="O33" t="n">
-        <v>748.3943707914339</v>
+        <v>354.5320515147044</v>
       </c>
       <c r="P33" t="n">
         <v>265.0148776976469</v>
       </c>
       <c r="Q33" t="n">
-        <v>126.7319967325503</v>
+        <v>262.2887784928259</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>30.48650699497402</v>
+        <v>30.48650699497404</v>
       </c>
       <c r="K34" t="n">
         <v>181.2470159903504</v>
@@ -37247,7 +37247,7 @@
         <v>209.1395623937798</v>
       </c>
       <c r="Q34" t="n">
-        <v>60.51953370412132</v>
+        <v>60.51953370412134</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>150.3971516057285</v>
+        <v>150.3971516057286</v>
       </c>
       <c r="K35" t="n">
         <v>600.8027849197972</v>
@@ -37317,19 +37317,19 @@
         <v>904.8740179504845</v>
       </c>
       <c r="N35" t="n">
-        <v>904.7360300767621</v>
+        <v>904.7360300767622</v>
       </c>
       <c r="O35" t="n">
-        <v>808.672499291335</v>
+        <v>808.6724992913352</v>
       </c>
       <c r="P35" t="n">
-        <v>370.4335652432939</v>
+        <v>330.3296284443377</v>
       </c>
       <c r="Q35" t="n">
-        <v>199.4044540501362</v>
+        <v>239.5083908490914</v>
       </c>
       <c r="R35" t="n">
-        <v>29.72010585988724</v>
+        <v>29.72010585988727</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>70.56758695355242</v>
       </c>
       <c r="K36" t="n">
-        <v>199.555513342414</v>
+        <v>464.0207503549926</v>
       </c>
       <c r="L36" t="n">
-        <v>315.1174599800694</v>
+        <v>315.1174599800695</v>
       </c>
       <c r="M36" t="n">
-        <v>387.2796047595681</v>
+        <v>387.2796047595683</v>
       </c>
       <c r="N36" t="n">
-        <v>812.1059490675623</v>
+        <v>412.0839302947073</v>
       </c>
       <c r="O36" t="n">
-        <v>354.5320515147043</v>
+        <v>354.5320515147044</v>
       </c>
       <c r="P36" t="n">
         <v>265.0148776976469</v>
       </c>
       <c r="Q36" t="n">
-        <v>126.7319967325503</v>
+        <v>262.2887784928259</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>30.48650699497402</v>
+        <v>30.48650699497404</v>
       </c>
       <c r="K37" t="n">
         <v>181.2470159903504</v>
@@ -37484,7 +37484,7 @@
         <v>209.1395623937798</v>
       </c>
       <c r="Q37" t="n">
-        <v>60.51953370412132</v>
+        <v>60.51953370412134</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>150.3971516057285</v>
+        <v>150.3971516057286</v>
       </c>
       <c r="K38" t="n">
-        <v>600.8027849197972</v>
+        <v>319.1080135472699</v>
       </c>
       <c r="L38" t="n">
-        <v>741.4908179739901</v>
+        <v>798.1536555944375</v>
       </c>
       <c r="M38" t="n">
         <v>904.8740179504845</v>
       </c>
       <c r="N38" t="n">
-        <v>467.3891056647779</v>
+        <v>904.7360300767622</v>
       </c>
       <c r="O38" t="n">
-        <v>808.672499291335</v>
+        <v>808.6724992913352</v>
       </c>
       <c r="P38" t="n">
-        <v>652.1283366158202</v>
+        <v>652.1283366158204</v>
       </c>
       <c r="Q38" t="n">
-        <v>411.7194447100409</v>
+        <v>199.4044540501363</v>
       </c>
       <c r="R38" t="n">
-        <v>29.72010585988724</v>
+        <v>29.72010585988727</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>70.56758695355242</v>
       </c>
       <c r="K39" t="n">
-        <v>228.73718681181</v>
+        <v>464.0207503549926</v>
       </c>
       <c r="L39" t="n">
-        <v>685.9578052835286</v>
+        <v>315.1174599800695</v>
       </c>
       <c r="M39" t="n">
-        <v>387.2796047595681</v>
+        <v>387.2796047595683</v>
       </c>
       <c r="N39" t="n">
-        <v>412.0839302947072</v>
+        <v>412.0839302947073</v>
       </c>
       <c r="O39" t="n">
-        <v>354.5320515147043</v>
+        <v>354.5320515147044</v>
       </c>
       <c r="P39" t="n">
         <v>265.0148776976469</v>
       </c>
       <c r="Q39" t="n">
-        <v>126.7319967325503</v>
+        <v>262.2887784928259</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>30.48650699497402</v>
+        <v>30.48650699497404</v>
       </c>
       <c r="K40" t="n">
         <v>181.2470159903504</v>
@@ -37721,7 +37721,7 @@
         <v>209.1395623937798</v>
       </c>
       <c r="Q40" t="n">
-        <v>60.51953370412132</v>
+        <v>60.51953370412134</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>150.3971516057285</v>
+        <v>319.4937667778024</v>
       </c>
       <c r="K41" t="n">
-        <v>600.8027849197972</v>
+        <v>276.6573723486325</v>
       </c>
       <c r="L41" t="n">
-        <v>516.4588842219113</v>
+        <v>798.1536555944375</v>
       </c>
       <c r="M41" t="n">
         <v>904.8740179504845</v>
       </c>
       <c r="N41" t="n">
-        <v>904.7360300767621</v>
+        <v>904.7360300767622</v>
       </c>
       <c r="O41" t="n">
-        <v>808.672499291335</v>
+        <v>808.6724992913352</v>
       </c>
       <c r="P41" t="n">
-        <v>652.1283366158202</v>
+        <v>330.3296284443377</v>
       </c>
       <c r="Q41" t="n">
-        <v>199.4044540501362</v>
+        <v>328.8407683752005</v>
       </c>
       <c r="R41" t="n">
-        <v>29.72010585988724</v>
+        <v>95.43652573286971</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,22 +37864,22 @@
         <v>464.0207503549926</v>
       </c>
       <c r="L42" t="n">
-        <v>315.1174599800694</v>
+        <v>315.1174599800695</v>
       </c>
       <c r="M42" t="n">
-        <v>387.2796047595681</v>
+        <v>387.2796047595683</v>
       </c>
       <c r="N42" t="n">
-        <v>412.0839302947072</v>
+        <v>412.0839302947073</v>
       </c>
       <c r="O42" t="n">
-        <v>354.5320515147043</v>
+        <v>354.5320515147044</v>
       </c>
       <c r="P42" t="n">
-        <v>400.5716594579231</v>
+        <v>265.0148776976469</v>
       </c>
       <c r="Q42" t="n">
-        <v>126.7319967325503</v>
+        <v>262.2887784928259</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>30.48650699497402</v>
+        <v>30.48650699497404</v>
       </c>
       <c r="K43" t="n">
         <v>181.2470159903504</v>
@@ -37958,7 +37958,7 @@
         <v>209.1395623937798</v>
       </c>
       <c r="Q43" t="n">
-        <v>60.51953370412132</v>
+        <v>60.51953370412134</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>319.4937667778023</v>
+        <v>150.3971516057286</v>
       </c>
       <c r="K44" t="n">
         <v>600.8027849197972</v>
@@ -38028,19 +38028,19 @@
         <v>904.8740179504845</v>
       </c>
       <c r="N44" t="n">
-        <v>467.3891056647779</v>
+        <v>904.7360300767622</v>
       </c>
       <c r="O44" t="n">
-        <v>808.672499291335</v>
+        <v>808.6724992913352</v>
       </c>
       <c r="P44" t="n">
-        <v>360.6524639503172</v>
+        <v>330.3296284443377</v>
       </c>
       <c r="Q44" t="n">
-        <v>411.7194447100409</v>
+        <v>199.4044540501363</v>
       </c>
       <c r="R44" t="n">
-        <v>95.43652573286968</v>
+        <v>69.82404265884293</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>70.56758695355242</v>
       </c>
       <c r="K45" t="n">
-        <v>199.555513342414</v>
+        <v>464.0207503549926</v>
       </c>
       <c r="L45" t="n">
-        <v>505.0621910170753</v>
+        <v>315.1174599800695</v>
       </c>
       <c r="M45" t="n">
-        <v>387.2796047595681</v>
+        <v>387.2796047595683</v>
       </c>
       <c r="N45" t="n">
-        <v>412.0839302947072</v>
+        <v>412.0839302947073</v>
       </c>
       <c r="O45" t="n">
-        <v>354.5320515147043</v>
+        <v>354.5320515147044</v>
       </c>
       <c r="P45" t="n">
         <v>265.0148776976469</v>
       </c>
       <c r="Q45" t="n">
-        <v>336.8092844683994</v>
+        <v>262.2887784928259</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>30.48650699497402</v>
+        <v>30.48650699497404</v>
       </c>
       <c r="K46" t="n">
         <v>181.2470159903504</v>
@@ -38195,7 +38195,7 @@
         <v>209.1395623937798</v>
       </c>
       <c r="Q46" t="n">
-        <v>60.51953370412132</v>
+        <v>60.51953370412134</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
